--- a/PythonCrawler/data/kospi200.xlsx
+++ b/PythonCrawler/data/kospi200.xlsx
@@ -125,16 +125,22 @@
     <t>신한지주</t>
   </si>
   <si>
+    <t>028260</t>
+  </si>
+  <si>
+    <t>삼성물산</t>
+  </si>
+  <si>
     <t>066570</t>
   </si>
   <si>
     <t>LG전자</t>
   </si>
   <si>
-    <t>028260</t>
-  </si>
-  <si>
-    <t>삼성물산</t>
+    <t>096770</t>
+  </si>
+  <si>
+    <t>SK이노베이션</t>
   </si>
   <si>
     <t>012330</t>
@@ -143,12 +149,6 @@
     <t>현대모비스</t>
   </si>
   <si>
-    <t>096770</t>
-  </si>
-  <si>
-    <t>SK이노베이션</t>
-  </si>
-  <si>
     <t>034730</t>
   </si>
   <si>
@@ -167,16 +167,46 @@
     <t>하나금융지주</t>
   </si>
   <si>
+    <t>051900</t>
+  </si>
+  <si>
+    <t>LG생활건강</t>
+  </si>
+  <si>
     <t>015760</t>
   </si>
   <si>
     <t>한국전력</t>
   </si>
   <si>
-    <t>051900</t>
-  </si>
-  <si>
-    <t>LG생활건강</t>
+    <t>011200</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>329180</t>
+  </si>
+  <si>
+    <t>현대중공업</t>
+  </si>
+  <si>
+    <t>017670</t>
+  </si>
+  <si>
+    <t>SK텔레콤</t>
+  </si>
+  <si>
+    <t>034020</t>
+  </si>
+  <si>
+    <t>두산중공업</t>
+  </si>
+  <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
   </si>
   <si>
     <t>259960</t>
@@ -185,34 +215,22 @@
     <t>크래프톤</t>
   </si>
   <si>
-    <t>032830</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
-    <t>017670</t>
-  </si>
-  <si>
-    <t>SK텔레콤</t>
-  </si>
-  <si>
-    <t>011200</t>
-  </si>
-  <si>
-    <t>HMM</t>
-  </si>
-  <si>
-    <t>034020</t>
-  </si>
-  <si>
-    <t>두산중공업</t>
-  </si>
-  <si>
-    <t>329180</t>
-  </si>
-  <si>
-    <t>현대중공업</t>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
+    <t>009150</t>
+  </si>
+  <si>
+    <t>삼성전기</t>
+  </si>
+  <si>
+    <t>010950</t>
+  </si>
+  <si>
+    <t>S-Oil</t>
   </si>
   <si>
     <t>352820</t>
@@ -221,24 +239,6 @@
     <t>하이브</t>
   </si>
   <si>
-    <t>010950</t>
-  </si>
-  <si>
-    <t>S-Oil</t>
-  </si>
-  <si>
-    <t>009150</t>
-  </si>
-  <si>
-    <t>삼성전기</t>
-  </si>
-  <si>
-    <t>010130</t>
-  </si>
-  <si>
-    <t>고려아연</t>
-  </si>
-  <si>
     <t>003550</t>
   </si>
   <si>
@@ -263,16 +263,28 @@
     <t>대한항공</t>
   </si>
   <si>
+    <t>018260</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
     <t>302440</t>
   </si>
   <si>
     <t>SK바이오사이언스</t>
   </si>
   <si>
-    <t>018260</t>
-  </si>
-  <si>
-    <t>삼성에스디에스</t>
+    <t>003670</t>
+  </si>
+  <si>
+    <t>포스코케미칼</t>
+  </si>
+  <si>
+    <t>090430</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
   </si>
   <si>
     <t>000810</t>
@@ -281,22 +293,16 @@
     <t>삼성화재</t>
   </si>
   <si>
-    <t>003670</t>
-  </si>
-  <si>
-    <t>포스코케미칼</t>
-  </si>
-  <si>
     <t>036570</t>
   </si>
   <si>
     <t>엔씨소프트</t>
   </si>
   <si>
-    <t>090430</t>
-  </si>
-  <si>
-    <t>아모레퍼시픽</t>
+    <t>030200</t>
+  </si>
+  <si>
+    <t>KT</t>
   </si>
   <si>
     <t>011070</t>
@@ -305,10 +311,10 @@
     <t>LG이노텍</t>
   </si>
   <si>
-    <t>030200</t>
-  </si>
-  <si>
-    <t>KT</t>
+    <t>251270</t>
+  </si>
+  <si>
+    <t>넷마블</t>
   </si>
   <si>
     <t>361610</t>
@@ -317,12 +323,6 @@
     <t>SK아이이테크놀로지</t>
   </si>
   <si>
-    <t>251270</t>
-  </si>
-  <si>
-    <t>넷마블</t>
-  </si>
-  <si>
     <t>024110</t>
   </si>
   <si>
@@ -341,16 +341,22 @@
     <t>현대글로비스</t>
   </si>
   <si>
+    <t>326030</t>
+  </si>
+  <si>
+    <t>SK바이오팜</t>
+  </si>
+  <si>
     <t>034220</t>
   </si>
   <si>
     <t>LG디스플레이</t>
   </si>
   <si>
-    <t>326030</t>
-  </si>
-  <si>
-    <t>SK바이오팜</t>
+    <t>009540</t>
+  </si>
+  <si>
+    <t>한국조선해양</t>
   </si>
   <si>
     <t>011170</t>
@@ -359,46 +365,52 @@
     <t>롯데케미칼</t>
   </si>
   <si>
+    <t>032640</t>
+  </si>
+  <si>
+    <t>LG유플러스</t>
+  </si>
+  <si>
     <t>009830</t>
   </si>
   <si>
     <t>한화솔루션</t>
   </si>
   <si>
-    <t>009540</t>
-  </si>
-  <si>
-    <t>한국조선해양</t>
-  </si>
-  <si>
-    <t>032640</t>
-  </si>
-  <si>
-    <t>LG유플러스</t>
-  </si>
-  <si>
     <t>018880</t>
   </si>
   <si>
     <t>한온시스템</t>
   </si>
   <si>
+    <t>097950</t>
+  </si>
+  <si>
+    <t>CJ제일제당</t>
+  </si>
+  <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
     <t>011790</t>
   </si>
   <si>
     <t>SKC</t>
   </si>
   <si>
-    <t>035250</t>
-  </si>
-  <si>
-    <t>강원랜드</t>
-  </si>
-  <si>
-    <t>097950</t>
-  </si>
-  <si>
-    <t>CJ제일제당</t>
+    <t>004020</t>
+  </si>
+  <si>
+    <t>현대제철</t>
+  </si>
+  <si>
+    <t>010140</t>
+  </si>
+  <si>
+    <t>삼성중공업</t>
   </si>
   <si>
     <t>138040</t>
@@ -407,24 +419,18 @@
     <t>메리츠금융지주</t>
   </si>
   <si>
-    <t>004020</t>
-  </si>
-  <si>
-    <t>현대제철</t>
-  </si>
-  <si>
-    <t>010140</t>
-  </si>
-  <si>
-    <t>삼성중공업</t>
-  </si>
-  <si>
     <t>006800</t>
   </si>
   <si>
     <t>미래에셋증권</t>
   </si>
   <si>
+    <t>000720</t>
+  </si>
+  <si>
+    <t>현대건설</t>
+  </si>
+  <si>
     <t>021240</t>
   </si>
   <si>
@@ -437,34 +443,58 @@
     <t>DB손해보험</t>
   </si>
   <si>
-    <t>000720</t>
-  </si>
-  <si>
-    <t>현대건설</t>
-  </si>
-  <si>
     <t>028050</t>
   </si>
   <si>
     <t>삼성엔지니어링</t>
   </si>
   <si>
+    <t>011780</t>
+  </si>
+  <si>
+    <t>금호석유</t>
+  </si>
+  <si>
+    <t>267250</t>
+  </si>
+  <si>
+    <t>HD현대</t>
+  </si>
+  <si>
     <t>008560</t>
   </si>
   <si>
     <t>메리츠증권</t>
   </si>
   <si>
-    <t>011780</t>
-  </si>
-  <si>
-    <t>금호석유</t>
-  </si>
-  <si>
-    <t>267250</t>
-  </si>
-  <si>
-    <t>HD현대</t>
+    <t>047810</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>유한양행</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>두산밥캣</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>한국타이어앤테크놀로지</t>
+  </si>
+  <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>한국금융지주</t>
   </si>
   <si>
     <t>020150</t>
@@ -473,28 +503,16 @@
     <t>일진머티리얼즈</t>
   </si>
   <si>
-    <t>000100</t>
-  </si>
-  <si>
-    <t>유한양행</t>
-  </si>
-  <si>
-    <t>161390</t>
-  </si>
-  <si>
-    <t>한국타이어앤테크놀로지</t>
-  </si>
-  <si>
-    <t>071050</t>
-  </si>
-  <si>
-    <t>한국금융지주</t>
-  </si>
-  <si>
-    <t>047810</t>
-  </si>
-  <si>
-    <t>한국항공우주</t>
+    <t>003410</t>
+  </si>
+  <si>
+    <t>쌍용C&amp;E</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
+    <t>GS</t>
   </si>
   <si>
     <t>002790</t>
@@ -503,16 +521,22 @@
     <t>아모레G</t>
   </si>
   <si>
-    <t>003410</t>
-  </si>
-  <si>
-    <t>쌍용C&amp;E</t>
-  </si>
-  <si>
-    <t>078930</t>
-  </si>
-  <si>
-    <t>GS</t>
+    <t>128940</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
+    <t>139480</t>
+  </si>
+  <si>
+    <t>이마트</t>
+  </si>
+  <si>
+    <t>029780</t>
+  </si>
+  <si>
+    <t>삼성카드</t>
   </si>
   <si>
     <t>180640</t>
@@ -521,28 +545,16 @@
     <t>한진칼</t>
   </si>
   <si>
-    <t>139480</t>
-  </si>
-  <si>
-    <t>이마트</t>
-  </si>
-  <si>
-    <t>029780</t>
-  </si>
-  <si>
-    <t>삼성카드</t>
-  </si>
-  <si>
-    <t>241560</t>
-  </si>
-  <si>
-    <t>두산밥캣</t>
-  </si>
-  <si>
-    <t>128940</t>
-  </si>
-  <si>
-    <t>한미약품</t>
+    <t>005940</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>036460</t>
+  </si>
+  <si>
+    <t>한국가스공사</t>
   </si>
   <si>
     <t>006360</t>
@@ -551,22 +563,28 @@
     <t>GS건설</t>
   </si>
   <si>
+    <t>028670</t>
+  </si>
+  <si>
+    <t>팬오션</t>
+  </si>
+  <si>
     <t>016360</t>
   </si>
   <si>
     <t>삼성증권</t>
   </si>
   <si>
-    <t>036460</t>
-  </si>
-  <si>
-    <t>한국가스공사</t>
-  </si>
-  <si>
-    <t>005940</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
+    <t>010620</t>
+  </si>
+  <si>
+    <t>현대미포조선</t>
+  </si>
+  <si>
+    <t>271560</t>
+  </si>
+  <si>
+    <t>오리온</t>
   </si>
   <si>
     <t>004990</t>
@@ -575,16 +593,10 @@
     <t>롯데지주</t>
   </si>
   <si>
-    <t>010620</t>
-  </si>
-  <si>
-    <t>현대미포조선</t>
-  </si>
-  <si>
-    <t>028670</t>
-  </si>
-  <si>
-    <t>팬오션</t>
+    <t>008930</t>
+  </si>
+  <si>
+    <t>한미사이언스</t>
   </si>
   <si>
     <t>000990</t>
@@ -593,12 +605,6 @@
     <t>DB하이텍</t>
   </si>
   <si>
-    <t>271560</t>
-  </si>
-  <si>
-    <t>오리온</t>
-  </si>
-  <si>
     <t>008770</t>
   </si>
   <si>
@@ -611,10 +617,10 @@
     <t>한화시스템</t>
   </si>
   <si>
-    <t>008930</t>
-  </si>
-  <si>
-    <t>한미사이언스</t>
+    <t>047050</t>
+  </si>
+  <si>
+    <t>포스코인터내셔널</t>
   </si>
   <si>
     <t>282330</t>
@@ -623,66 +629,72 @@
     <t>BGF리테일</t>
   </si>
   <si>
+    <t>052690</t>
+  </si>
+  <si>
+    <t>한전기술</t>
+  </si>
+  <si>
+    <t>002380</t>
+  </si>
+  <si>
+    <t>KCC</t>
+  </si>
+  <si>
+    <t>042660</t>
+  </si>
+  <si>
+    <t>대우조선해양</t>
+  </si>
+  <si>
+    <t>000120</t>
+  </si>
+  <si>
+    <t>CJ대한통운</t>
+  </si>
+  <si>
+    <t>007070</t>
+  </si>
+  <si>
+    <t>GS리테일</t>
+  </si>
+  <si>
+    <t>001450</t>
+  </si>
+  <si>
+    <t>현대해상</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>023530</t>
+  </si>
+  <si>
+    <t>롯데쇼핑</t>
+  </si>
+  <si>
+    <t>026960</t>
+  </si>
+  <si>
+    <t>동서</t>
+  </si>
+  <si>
     <t>030000</t>
   </si>
   <si>
     <t>제일기획</t>
   </si>
   <si>
-    <t>000120</t>
-  </si>
-  <si>
-    <t>CJ대한통운</t>
-  </si>
-  <si>
-    <t>002380</t>
-  </si>
-  <si>
-    <t>KCC</t>
-  </si>
-  <si>
-    <t>052690</t>
-  </si>
-  <si>
-    <t>한전기술</t>
-  </si>
-  <si>
-    <t>007070</t>
-  </si>
-  <si>
-    <t>GS리테일</t>
-  </si>
-  <si>
-    <t>001450</t>
-  </si>
-  <si>
-    <t>현대해상</t>
-  </si>
-  <si>
-    <t>023530</t>
-  </si>
-  <si>
-    <t>롯데쇼핑</t>
-  </si>
-  <si>
-    <t>042660</t>
-  </si>
-  <si>
-    <t>대우조선해양</t>
-  </si>
-  <si>
     <t>047040</t>
   </si>
   <si>
     <t>대우건설</t>
   </si>
   <si>
-    <t>047050</t>
-  </si>
-  <si>
-    <t>포스코인터내셔널</t>
-  </si>
-  <si>
     <t>088350</t>
   </si>
   <si>
@@ -707,64 +719,70 @@
     <t>신세계</t>
   </si>
   <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>에스원</t>
+  </si>
+  <si>
+    <t>204320</t>
+  </si>
+  <si>
+    <t>만도</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>112610</t>
+  </si>
+  <si>
+    <t>씨에스윈드</t>
+  </si>
+  <si>
+    <t>138930</t>
+  </si>
+  <si>
+    <t>BNK금융지주</t>
+  </si>
+  <si>
+    <t>014680</t>
+  </si>
+  <si>
+    <t>한솔케미칼</t>
+  </si>
+  <si>
+    <t>336260</t>
+  </si>
+  <si>
+    <t>두산퓨얼셀</t>
+  </si>
+  <si>
     <t>010060</t>
   </si>
   <si>
     <t>OCI</t>
   </si>
   <si>
-    <t>012450</t>
-  </si>
-  <si>
-    <t>한화에어로스페이스</t>
-  </si>
-  <si>
-    <t>012750</t>
-  </si>
-  <si>
-    <t>에스원</t>
-  </si>
-  <si>
-    <t>336260</t>
-  </si>
-  <si>
-    <t>두산퓨얼셀</t>
-  </si>
-  <si>
-    <t>026960</t>
-  </si>
-  <si>
-    <t>동서</t>
-  </si>
-  <si>
-    <t>039490</t>
-  </si>
-  <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>112610</t>
-  </si>
-  <si>
-    <t>씨에스윈드</t>
-  </si>
-  <si>
-    <t>138930</t>
-  </si>
-  <si>
-    <t>BNK금융지주</t>
-  </si>
-  <si>
-    <t>204320</t>
-  </si>
-  <si>
-    <t>만도</t>
-  </si>
-  <si>
-    <t>014680</t>
-  </si>
-  <si>
-    <t>한솔케미칼</t>
+    <t>000880</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>001440</t>
+  </si>
+  <si>
+    <t>대한전선</t>
+  </si>
+  <si>
+    <t>004000</t>
+  </si>
+  <si>
+    <t>롯데정밀화학</t>
   </si>
   <si>
     <t>298050</t>
@@ -773,40 +791,34 @@
     <t>효성첨단소재</t>
   </si>
   <si>
+    <t>081660</t>
+  </si>
+  <si>
+    <t>휠라홀딩스</t>
+  </si>
+  <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>영원무역</t>
+  </si>
+  <si>
     <t>285130</t>
   </si>
   <si>
     <t>SK케미칼</t>
   </si>
   <si>
-    <t>000880</t>
-  </si>
-  <si>
-    <t>한화</t>
-  </si>
-  <si>
-    <t>001440</t>
-  </si>
-  <si>
-    <t>대한전선</t>
-  </si>
-  <si>
-    <t>111770</t>
-  </si>
-  <si>
-    <t>영원무역</t>
-  </si>
-  <si>
     <t>006280</t>
   </si>
   <si>
     <t>녹십자</t>
   </si>
   <si>
-    <t>004000</t>
-  </si>
-  <si>
-    <t>롯데정밀화학</t>
+    <t>069620</t>
+  </si>
+  <si>
+    <t>대웅제약</t>
   </si>
   <si>
     <t>064350</t>
@@ -815,46 +827,112 @@
     <t>현대로템</t>
   </si>
   <si>
+    <t>001230</t>
+  </si>
+  <si>
+    <t>동국제강</t>
+  </si>
+  <si>
+    <t>003090</t>
+  </si>
+  <si>
+    <t>대웅</t>
+  </si>
+  <si>
+    <t>004370</t>
+  </si>
+  <si>
+    <t>농심</t>
+  </si>
+  <si>
+    <t>004800</t>
+  </si>
+  <si>
+    <t>효성</t>
+  </si>
+  <si>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>009240</t>
+  </si>
+  <si>
+    <t>한샘</t>
+  </si>
+  <si>
+    <t>298020</t>
+  </si>
+  <si>
+    <t>효성티앤씨</t>
+  </si>
+  <si>
+    <t>014820</t>
+  </si>
+  <si>
+    <t>동원시스템즈</t>
+  </si>
+  <si>
+    <t>016380</t>
+  </si>
+  <si>
+    <t>KG스틸</t>
+  </si>
+  <si>
+    <t>019170</t>
+  </si>
+  <si>
+    <t>신풍제약</t>
+  </si>
+  <si>
+    <t>069960</t>
+  </si>
+  <si>
+    <t>현대백화점</t>
+  </si>
+  <si>
     <t>093370</t>
   </si>
   <si>
     <t>후성</t>
   </si>
   <si>
-    <t>081660</t>
-  </si>
-  <si>
-    <t>휠라홀딩스</t>
-  </si>
-  <si>
-    <t>004370</t>
-  </si>
-  <si>
-    <t>농심</t>
-  </si>
-  <si>
-    <t>004800</t>
-  </si>
-  <si>
-    <t>효성</t>
-  </si>
-  <si>
-    <t>006260</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>009240</t>
-  </si>
-  <si>
-    <t>한샘</t>
-  </si>
-  <si>
-    <t>298020</t>
-  </si>
-  <si>
-    <t>효성티앤씨</t>
+    <t>011210</t>
+  </si>
+  <si>
+    <t>현대위아</t>
+  </si>
+  <si>
+    <t>000150</t>
+  </si>
+  <si>
+    <t>두산</t>
+  </si>
+  <si>
+    <t>005300</t>
+  </si>
+  <si>
+    <t>롯데칠성</t>
+  </si>
+  <si>
+    <t>007310</t>
+  </si>
+  <si>
+    <t>오뚜기</t>
+  </si>
+  <si>
+    <t>120110</t>
+  </si>
+  <si>
+    <t>코오롱인더</t>
+  </si>
+  <si>
+    <t>020560</t>
+  </si>
+  <si>
+    <t>아시아나항공</t>
   </si>
   <si>
     <t>051600</t>
@@ -863,84 +941,6 @@
     <t>한전KPS</t>
   </si>
   <si>
-    <t>069620</t>
-  </si>
-  <si>
-    <t>대웅제약</t>
-  </si>
-  <si>
-    <t>069960</t>
-  </si>
-  <si>
-    <t>현대백화점</t>
-  </si>
-  <si>
-    <t>019170</t>
-  </si>
-  <si>
-    <t>신풍제약</t>
-  </si>
-  <si>
-    <t>000150</t>
-  </si>
-  <si>
-    <t>두산</t>
-  </si>
-  <si>
-    <t>001230</t>
-  </si>
-  <si>
-    <t>동국제강</t>
-  </si>
-  <si>
-    <t>003090</t>
-  </si>
-  <si>
-    <t>대웅</t>
-  </si>
-  <si>
-    <t>005300</t>
-  </si>
-  <si>
-    <t>롯데칠성</t>
-  </si>
-  <si>
-    <t>007310</t>
-  </si>
-  <si>
-    <t>오뚜기</t>
-  </si>
-  <si>
-    <t>120110</t>
-  </si>
-  <si>
-    <t>코오롱인더</t>
-  </si>
-  <si>
-    <t>011210</t>
-  </si>
-  <si>
-    <t>현대위아</t>
-  </si>
-  <si>
-    <t>014820</t>
-  </si>
-  <si>
-    <t>동원시스템즈</t>
-  </si>
-  <si>
-    <t>016380</t>
-  </si>
-  <si>
-    <t>KG스틸</t>
-  </si>
-  <si>
-    <t>020560</t>
-  </si>
-  <si>
-    <t>아시아나항공</t>
-  </si>
-  <si>
     <t>079550</t>
   </si>
   <si>
@@ -983,34 +983,76 @@
     <t>한국앤컴퍼니</t>
   </si>
   <si>
+    <t>000670</t>
+  </si>
+  <si>
+    <t>영풍</t>
+  </si>
+  <si>
+    <t>001740</t>
+  </si>
+  <si>
+    <t>SK네트웍스</t>
+  </si>
+  <si>
+    <t>073240</t>
+  </si>
+  <si>
+    <t>금호타이어</t>
+  </si>
+  <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>032350</t>
+  </si>
+  <si>
+    <t>롯데관광개발</t>
+  </si>
+  <si>
     <t>042670</t>
   </si>
   <si>
     <t>현대두산인프라코어</t>
   </si>
   <si>
-    <t>010120</t>
-  </si>
-  <si>
-    <t>LS ELECTRIC</t>
-  </si>
-  <si>
-    <t>032350</t>
-  </si>
-  <si>
-    <t>롯데관광개발</t>
-  </si>
-  <si>
-    <t>000670</t>
-  </si>
-  <si>
-    <t>영풍</t>
-  </si>
-  <si>
-    <t>001740</t>
-  </si>
-  <si>
-    <t>SK네트웍스</t>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
+    <t>003240</t>
+  </si>
+  <si>
+    <t>태광산업</t>
+  </si>
+  <si>
+    <t>004490</t>
+  </si>
+  <si>
+    <t>세방전지</t>
+  </si>
+  <si>
+    <t>005250</t>
+  </si>
+  <si>
+    <t>녹십자홀딩스</t>
+  </si>
+  <si>
+    <t>006650</t>
+  </si>
+  <si>
+    <t>대한유화</t>
+  </si>
+  <si>
+    <t>009900</t>
+  </si>
+  <si>
+    <t>명신산업</t>
   </si>
   <si>
     <t>375500</t>
@@ -1019,34 +1061,34 @@
     <t>DL이앤씨</t>
   </si>
   <si>
-    <t>004490</t>
-  </si>
-  <si>
-    <t>세방전지</t>
-  </si>
-  <si>
-    <t>005250</t>
-  </si>
-  <si>
-    <t>녹십자홀딩스</t>
-  </si>
-  <si>
-    <t>005850</t>
-  </si>
-  <si>
-    <t>에스엘</t>
-  </si>
-  <si>
-    <t>006650</t>
-  </si>
-  <si>
-    <t>대한유화</t>
-  </si>
-  <si>
-    <t>009900</t>
-  </si>
-  <si>
-    <t>명신산업</t>
+    <t>031430</t>
+  </si>
+  <si>
+    <t>신세계인터내셔날</t>
+  </si>
+  <si>
+    <t>079160</t>
+  </si>
+  <si>
+    <t>CJ CGV</t>
+  </si>
+  <si>
+    <t>105630</t>
+  </si>
+  <si>
+    <t>한세실업</t>
+  </si>
+  <si>
+    <t>161890</t>
+  </si>
+  <si>
+    <t>한국콜마</t>
+  </si>
+  <si>
+    <t>185750</t>
+  </si>
+  <si>
+    <t>종근당</t>
   </si>
   <si>
     <t>013890</t>
@@ -1055,48 +1097,6 @@
     <t>지누스</t>
   </si>
   <si>
-    <t>031430</t>
-  </si>
-  <si>
-    <t>신세계인터내셔날</t>
-  </si>
-  <si>
-    <t>073240</t>
-  </si>
-  <si>
-    <t>금호타이어</t>
-  </si>
-  <si>
-    <t>079160</t>
-  </si>
-  <si>
-    <t>CJ CGV</t>
-  </si>
-  <si>
-    <t>105630</t>
-  </si>
-  <si>
-    <t>한세실업</t>
-  </si>
-  <si>
-    <t>161890</t>
-  </si>
-  <si>
-    <t>한국콜마</t>
-  </si>
-  <si>
-    <t>185750</t>
-  </si>
-  <si>
-    <t>종근당</t>
-  </si>
-  <si>
-    <t>003240</t>
-  </si>
-  <si>
-    <t>태광산업</t>
-  </si>
-  <si>
     <t>001680</t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
     <t>003850</t>
   </si>
   <si>
-    <t>보령제약</t>
+    <t>보령</t>
   </si>
   <si>
     <t>005440</t>
@@ -1362,7 +1362,7 @@
     <col min="3" max="3" width="16.77734375" customWidth="true"/>
     <col min="4" max="4" width="16.77734375" customWidth="true"/>
     <col min="5" max="5" width="16.77734375" customWidth="true"/>
-    <col min="6" max="6" width="20.1328125" customWidth="true"/>
+    <col min="6" max="6" width="18.45703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
@@ -1393,16 +1393,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>67700.0</v>
+        <v>67600.0</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>-1000.0</v>
+        <v>900.0</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>-1.46</v>
+        <v>1.35</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>4.04154279E8</v>
+        <v>4.035573E8</v>
       </c>
     </row>
     <row r="3">
@@ -1413,16 +1413,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>435000.0</v>
+        <v>437000.0</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>4000.0</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>1.0179E8</v>
+        <v>1.02258E8</v>
       </c>
     </row>
     <row r="4">
@@ -1433,16 +1433,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>110500.0</v>
+        <v>112500.0</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>-2500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>-2.21</v>
+        <v>3.21</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>8.0444261E7</v>
+        <v>8.1900266E7</v>
       </c>
     </row>
     <row r="5">
@@ -1453,16 +1453,16 @@
         <v>14</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>837000.0</v>
+        <v>826000.0</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>29000.0</v>
+        <v>-6000.0</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>3.59</v>
+        <v>-0.72</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>5.5380105E7</v>
+        <v>5.465229E7</v>
       </c>
     </row>
     <row r="6">
@@ -1473,16 +1473,16 @@
         <v>16</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>314500.0</v>
+        <v>312500.0</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>4000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1.29</v>
+        <v>1.96</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>5.1593437E7</v>
+        <v>5.1265339E7</v>
       </c>
     </row>
     <row r="7">
@@ -1493,16 +1493,16 @@
         <v>18</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>95900.0</v>
+        <v>95500.0</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>100.0</v>
+        <v>1100.0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.1</v>
+        <v>1.17</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>4.2797332E7</v>
+        <v>4.2618824E7</v>
       </c>
     </row>
     <row r="8">
@@ -1513,16 +1513,16 @@
         <v>20</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>619000.0</v>
+        <v>606000.0</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>20000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>3.34</v>
+        <v>0.83</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>4.2565244E7</v>
+        <v>4.1671305E7</v>
       </c>
     </row>
     <row r="9">
@@ -1533,16 +1533,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>178000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>-3000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>-1.66</v>
+        <v>0.84</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>3.8032937E7</v>
+        <v>3.8460274E7</v>
       </c>
     </row>
     <row r="10">
@@ -1553,16 +1553,16 @@
         <v>24</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>518000.0</v>
+        <v>501000.0</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>3.6566834E7</v>
+        <v>3.5366764E7</v>
       </c>
     </row>
     <row r="11">
@@ -1573,16 +1573,16 @@
         <v>26</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>77400.0</v>
+        <v>78100.0</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>-500.0</v>
+        <v>-100.0</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>-0.64</v>
+        <v>-0.13</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>3.1375123E7</v>
+        <v>3.1658877E7</v>
       </c>
     </row>
     <row r="12">
@@ -1593,16 +1593,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>285500.0</v>
+        <v>288500.0</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>0.0</v>
+        <v>5500.0</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>0.0</v>
+        <v>1.94</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>2.4891841E7</v>
+        <v>2.5153402E7</v>
       </c>
     </row>
     <row r="13">
@@ -1613,16 +1613,16 @@
         <v>30</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>59700.0</v>
+        <v>60000.0</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0.0</v>
+        <v>0.67</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>2.4617444E7</v>
+        <v>2.474115E7</v>
       </c>
     </row>
     <row r="14">
@@ -1633,16 +1633,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>164000.0</v>
+        <v>160500.0</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>-500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>-0.3</v>
+        <v>2.56</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>2.2624707E7</v>
+        <v>2.2141863E7</v>
       </c>
     </row>
     <row r="15">
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>46550.0</v>
+        <v>45650.0</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>-300.0</v>
+        <v>250.0</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>-0.64</v>
+        <v>0.55</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>2.2118662E7</v>
+        <v>2.1738367E7</v>
       </c>
     </row>
     <row r="16">
@@ -1673,16 +1673,16 @@
         <v>36</v>
       </c>
       <c r="C16" s="10" t="n">
-        <v>40800.0</v>
+        <v>40600.0</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>350.0</v>
+        <v>450.0</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>0.87</v>
+        <v>1.12</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>2.1077262E7</v>
+        <v>2.0973942E7</v>
       </c>
     </row>
     <row r="17">
@@ -1693,16 +1693,16 @@
         <v>38</v>
       </c>
       <c r="C17" s="10" t="n">
-        <v>127000.0</v>
+        <v>111000.0</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>0.0</v>
+        <v>0.91</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>2.0783272E7</v>
+        <v>2.0744466E7</v>
       </c>
     </row>
     <row r="18">
@@ -1713,16 +1713,16 @@
         <v>40</v>
       </c>
       <c r="C18" s="10" t="n">
-        <v>109500.0</v>
+        <v>124500.0</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>-1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>-0.9</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>2.0464135E7</v>
+        <v>2.0374153E7</v>
       </c>
     </row>
     <row r="19">
@@ -1733,16 +1733,16 @@
         <v>42</v>
       </c>
       <c r="C19" s="10" t="n">
-        <v>209500.0</v>
+        <v>218500.0</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>-500.0</v>
+        <v>2500.0</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>-0.24</v>
+        <v>1.16</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>1.9813063E7</v>
+        <v>2.0203726E7</v>
       </c>
     </row>
     <row r="20">
@@ -1753,16 +1753,16 @@
         <v>44</v>
       </c>
       <c r="C20" s="10" t="n">
-        <v>208000.0</v>
+        <v>211500.0</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>0.97</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>1.9232837E7</v>
+        <v>2.0002209E7</v>
       </c>
     </row>
     <row r="21">
@@ -1773,16 +1773,16 @@
         <v>46</v>
       </c>
       <c r="C21" s="10" t="n">
-        <v>248500.0</v>
+        <v>250500.0</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>1.8426108E7</v>
+        <v>1.8574407E7</v>
       </c>
     </row>
     <row r="22">
@@ -1793,16 +1793,16 @@
         <v>48</v>
       </c>
       <c r="C22" s="10" t="n">
-        <v>135000.0</v>
+        <v>129000.0</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>1000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>0.75</v>
+        <v>1.18</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>1.7879223E7</v>
+        <v>1.7084591E7</v>
       </c>
     </row>
     <row r="23">
@@ -1813,16 +1813,16 @@
         <v>50</v>
       </c>
       <c r="C23" s="10" t="n">
-        <v>47200.0</v>
+        <v>47650.0</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>0.0</v>
+        <v>950.0</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>0.0</v>
+        <v>2.03</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>1.4171425E7</v>
+        <v>1.4306534E7</v>
       </c>
     </row>
     <row r="24">
@@ -1833,16 +1833,16 @@
         <v>52</v>
       </c>
       <c r="C24" s="10" t="n">
-        <v>22150.0</v>
+        <v>904000.0</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>50.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1.4219504E7</v>
+        <v>1.411885E7</v>
       </c>
     </row>
     <row r="25">
@@ -1853,16 +1853,16 @@
         <v>54</v>
       </c>
       <c r="C25" s="10" t="n">
-        <v>890000.0</v>
+        <v>21800.0</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>0.0</v>
+        <v>-50.0</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>0.0</v>
+        <v>-0.23</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>1.3900195E7</v>
+        <v>1.3994817E7</v>
       </c>
     </row>
     <row r="26">
@@ -1873,16 +1873,16 @@
         <v>56</v>
       </c>
       <c r="C26" s="10" t="n">
-        <v>266000.0</v>
+        <v>27350.0</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>-1500.0</v>
+        <v>950.0</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>-0.56</v>
+        <v>3.6</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1.3053164E7</v>
+        <v>1.337523E7</v>
       </c>
     </row>
     <row r="27">
@@ -1893,16 +1893,16 @@
         <v>58</v>
       </c>
       <c r="C27" s="10" t="n">
-        <v>65200.0</v>
+        <v>149000.0</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>-300.0</v>
+        <v>6500.0</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>-0.46</v>
+        <v>4.56</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>1.304E7</v>
+        <v>1.3227194E7</v>
       </c>
     </row>
     <row r="28">
@@ -1913,16 +1913,16 @@
         <v>60</v>
       </c>
       <c r="C28" s="10" t="n">
-        <v>59700.0</v>
+        <v>60600.0</v>
       </c>
       <c r="D28" s="10" t="n">
-        <v>-1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>-2.93</v>
+        <v>1.34</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1.3064339E7</v>
+        <v>1.3261289E7</v>
       </c>
     </row>
     <row r="29">
@@ -1933,16 +1933,16 @@
         <v>62</v>
       </c>
       <c r="C29" s="10" t="n">
-        <v>26850.0</v>
+        <v>21300.0</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>0.37</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>1.313071E7</v>
+        <v>1.3129362E7</v>
       </c>
     </row>
     <row r="30">
@@ -1953,16 +1953,16 @@
         <v>64</v>
       </c>
       <c r="C30" s="10" t="n">
-        <v>20900.0</v>
+        <v>65000.0</v>
       </c>
       <c r="D30" s="10" t="n">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1.2882801E7</v>
+        <v>1.3E7</v>
       </c>
     </row>
     <row r="31">
@@ -1973,16 +1973,16 @@
         <v>66</v>
       </c>
       <c r="C31" s="10" t="n">
-        <v>139500.0</v>
+        <v>262500.0</v>
       </c>
       <c r="D31" s="10" t="n">
-        <v>3000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>2.2</v>
+        <v>0.57</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>1.238385E7</v>
+        <v>1.2881412E7</v>
       </c>
     </row>
     <row r="32">
@@ -1993,16 +1993,16 @@
         <v>68</v>
       </c>
       <c r="C32" s="10" t="n">
-        <v>297000.0</v>
+        <v>648000.0</v>
       </c>
       <c r="D32" s="10" t="n">
-        <v>-4500.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>-1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1.2281956E7</v>
+        <v>1.222776E7</v>
       </c>
     </row>
     <row r="33">
@@ -2013,16 +2013,16 @@
         <v>70</v>
       </c>
       <c r="C33" s="10" t="n">
-        <v>106000.0</v>
+        <v>157500.0</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>1500.0</v>
+        <v>500.0</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>1.44</v>
+        <v>0.32</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>1.1933776E7</v>
+        <v>1.1764257E7</v>
       </c>
     </row>
     <row r="34">
@@ -2033,16 +2033,16 @@
         <v>72</v>
       </c>
       <c r="C34" s="10" t="n">
-        <v>160500.0</v>
+        <v>105000.0</v>
       </c>
       <c r="D34" s="10" t="n">
-        <v>500.0</v>
+        <v>-2500.0</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>0.31</v>
+        <v>-2.33</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1.1988338E7</v>
+        <v>1.1821193E7</v>
       </c>
     </row>
     <row r="35">
@@ -2053,16 +2053,16 @@
         <v>74</v>
       </c>
       <c r="C35" s="10" t="n">
-        <v>633000.0</v>
+        <v>280000.0</v>
       </c>
       <c r="D35" s="10" t="n">
-        <v>8000.0</v>
+        <v>500.0</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>1.28</v>
+        <v>0.18</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>1.194471E7</v>
+        <v>1.1578948E7</v>
       </c>
     </row>
     <row r="36">
@@ -2073,16 +2073,16 @@
         <v>76</v>
       </c>
       <c r="C36" s="10" t="n">
-        <v>74900.0</v>
+        <v>73700.0</v>
       </c>
       <c r="D36" s="10" t="n">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>0.13</v>
+        <v>0.82</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>1.1781844E7</v>
+        <v>1.1593083E7</v>
       </c>
     </row>
     <row r="37">
@@ -2093,16 +2093,16 @@
         <v>78</v>
       </c>
       <c r="C37" s="10" t="n">
-        <v>15300.0</v>
+        <v>15600.0</v>
       </c>
       <c r="D37" s="10" t="n">
-        <v>0.0</v>
+        <v>350.0</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>0.0</v>
+        <v>2.3</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>1.1139326E7</v>
+        <v>1.1357745E7</v>
       </c>
     </row>
     <row r="38">
@@ -2113,16 +2113,16 @@
         <v>80</v>
       </c>
       <c r="C38" s="10" t="n">
-        <v>80900.0</v>
+        <v>80800.0</v>
       </c>
       <c r="D38" s="10" t="n">
-        <v>-1100.0</v>
+        <v>300.0</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>-1.34</v>
+        <v>0.37</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>1.1106963E7</v>
+        <v>1.1093234E7</v>
       </c>
     </row>
     <row r="39">
@@ -2133,16 +2133,16 @@
         <v>82</v>
       </c>
       <c r="C39" s="10" t="n">
-        <v>31700.0</v>
+        <v>31300.0</v>
       </c>
       <c r="D39" s="10" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>1.28</v>
+        <v>0.0</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>1.102592E7</v>
+        <v>1.0886792E7</v>
       </c>
     </row>
     <row r="40">
@@ -2153,16 +2153,16 @@
         <v>84</v>
       </c>
       <c r="C40" s="10" t="n">
-        <v>138500.0</v>
+        <v>138000.0</v>
       </c>
       <c r="D40" s="10" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>0.0</v>
+        <v>0.73</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>1.06091E7</v>
+        <v>1.0678136E7</v>
       </c>
     </row>
     <row r="41">
@@ -2173,16 +2173,16 @@
         <v>86</v>
       </c>
       <c r="C41" s="10" t="n">
-        <v>138500.0</v>
+        <v>136000.0</v>
       </c>
       <c r="D41" s="10" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>0.36</v>
+        <v>0.74</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>1.0716825E7</v>
+        <v>1.0426516E7</v>
       </c>
     </row>
     <row r="42">
@@ -2193,16 +2193,16 @@
         <v>88</v>
       </c>
       <c r="C42" s="10" t="n">
-        <v>218500.0</v>
+        <v>130000.0</v>
       </c>
       <c r="D42" s="10" t="n">
-        <v>2000.0</v>
+        <v>500.0</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>0.92</v>
+        <v>0.39</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1.0351402E7</v>
+        <v>1.0070219E7</v>
       </c>
     </row>
     <row r="43">
@@ -2213,16 +2213,16 @@
         <v>90</v>
       </c>
       <c r="C43" s="10" t="n">
-        <v>133000.0</v>
+        <v>166500.0</v>
       </c>
       <c r="D43" s="10" t="n">
-        <v>6000.0</v>
+        <v>-1500.0</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>4.72</v>
+        <v>-0.89</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>1.0302608E7</v>
+        <v>9739044.0</v>
       </c>
     </row>
     <row r="44">
@@ -2233,16 +2233,16 @@
         <v>92</v>
       </c>
       <c r="C44" s="10" t="n">
-        <v>450500.0</v>
+        <v>207500.0</v>
       </c>
       <c r="D44" s="10" t="n">
-        <v>-8000.0</v>
+        <v>-500.0</v>
       </c>
       <c r="E44" s="7" t="n">
-        <v>-1.74</v>
+        <v>-0.24</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>9890287.0</v>
+        <v>9830279.0</v>
       </c>
     </row>
     <row r="45">
@@ -2253,16 +2253,16 @@
         <v>94</v>
       </c>
       <c r="C45" s="10" t="n">
-        <v>164000.0</v>
+        <v>442000.0</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>2500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="E45" s="7" t="n">
-        <v>1.55</v>
+        <v>0.8</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>9592812.0</v>
+        <v>9703678.0</v>
       </c>
     </row>
     <row r="46">
@@ -2273,16 +2273,16 @@
         <v>96</v>
       </c>
       <c r="C46" s="10" t="n">
-        <v>402500.0</v>
+        <v>36850.0</v>
       </c>
       <c r="D46" s="10" t="n">
-        <v>29000.0</v>
+        <v>1550.0</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>7.76</v>
+        <v>4.39</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>9526011.0</v>
+        <v>9621970.0</v>
       </c>
     </row>
     <row r="47">
@@ -2293,16 +2293,16 @@
         <v>98</v>
       </c>
       <c r="C47" s="10" t="n">
-        <v>35650.0</v>
+        <v>389000.0</v>
       </c>
       <c r="D47" s="10" t="n">
-        <v>-300.0</v>
+        <v>-4000.0</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>-0.83</v>
+        <v>-1.02</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>9308636.0</v>
+        <v>9206505.0</v>
       </c>
     </row>
     <row r="48">
@@ -2313,16 +2313,16 @@
         <v>100</v>
       </c>
       <c r="C48" s="10" t="n">
-        <v>126500.0</v>
+        <v>103000.0</v>
       </c>
       <c r="D48" s="10" t="n">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>1.61</v>
+        <v>0.0</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>9019145.0</v>
+        <v>8853211.0</v>
       </c>
     </row>
     <row r="49">
@@ -2333,16 +2333,16 @@
         <v>102</v>
       </c>
       <c r="C49" s="10" t="n">
-        <v>103500.0</v>
+        <v>120000.0</v>
       </c>
       <c r="D49" s="10" t="n">
-        <v>-1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E49" s="7" t="n">
-        <v>-0.96</v>
+        <v>1.69</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>8896187.0</v>
+        <v>8555711.0</v>
       </c>
     </row>
     <row r="50">
@@ -2353,16 +2353,16 @@
         <v>104</v>
       </c>
       <c r="C50" s="10" t="n">
-        <v>11200.0</v>
+        <v>11250.0</v>
       </c>
       <c r="D50" s="10" t="n">
-        <v>50.0</v>
+        <v>200.0</v>
       </c>
       <c r="E50" s="7" t="n">
-        <v>0.45</v>
+        <v>1.81</v>
       </c>
       <c r="F50" s="10" t="n">
-        <v>8336167.0</v>
+        <v>8373382.0</v>
       </c>
     </row>
     <row r="51">
@@ -2373,16 +2373,16 @@
         <v>106</v>
       </c>
       <c r="C51" s="10" t="n">
-        <v>57400.0</v>
+        <v>56700.0</v>
       </c>
       <c r="D51" s="10" t="n">
-        <v>400.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E51" s="7" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="F51" s="10" t="n">
-        <v>8120239.0</v>
+        <v>8021211.0</v>
       </c>
     </row>
     <row r="52">
@@ -2393,16 +2393,16 @@
         <v>108</v>
       </c>
       <c r="C52" s="10" t="n">
-        <v>197500.0</v>
+        <v>192500.0</v>
       </c>
       <c r="D52" s="10" t="n">
-        <v>-1000.0</v>
+        <v>-2500.0</v>
       </c>
       <c r="E52" s="7" t="n">
-        <v>-0.5</v>
+        <v>-1.28</v>
       </c>
       <c r="F52" s="10" t="n">
-        <v>7406250.0</v>
+        <v>7218750.0</v>
       </c>
     </row>
     <row r="53">
@@ -2413,16 +2413,16 @@
         <v>110</v>
       </c>
       <c r="C53" s="10" t="n">
-        <v>19350.0</v>
+        <v>88100.0</v>
       </c>
       <c r="D53" s="10" t="n">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="E53" s="7" t="n">
-        <v>1.57</v>
+        <v>0.69</v>
       </c>
       <c r="F53" s="10" t="n">
-        <v>6923734.0</v>
+        <v>6899397.0</v>
       </c>
     </row>
     <row r="54">
@@ -2433,16 +2433,16 @@
         <v>112</v>
       </c>
       <c r="C54" s="10" t="n">
-        <v>88900.0</v>
+        <v>18900.0</v>
       </c>
       <c r="D54" s="10" t="n">
-        <v>300.0</v>
+        <v>450.0</v>
       </c>
       <c r="E54" s="7" t="n">
-        <v>0.34</v>
+        <v>2.44</v>
       </c>
       <c r="F54" s="10" t="n">
-        <v>6962048.0</v>
+        <v>6762717.0</v>
       </c>
     </row>
     <row r="55">
@@ -2453,16 +2453,16 @@
         <v>114</v>
       </c>
       <c r="C55" s="10" t="n">
-        <v>196500.0</v>
+        <v>96900.0</v>
       </c>
       <c r="D55" s="10" t="n">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
       <c r="E55" s="7" t="n">
-        <v>0.0</v>
+        <v>3.19</v>
       </c>
       <c r="F55" s="10" t="n">
-        <v>6735120.0</v>
+        <v>6857915.0</v>
       </c>
     </row>
     <row r="56">
@@ -2473,16 +2473,16 @@
         <v>116</v>
       </c>
       <c r="C56" s="10" t="n">
-        <v>34500.0</v>
+        <v>195500.0</v>
       </c>
       <c r="D56" s="10" t="n">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
       <c r="E56" s="7" t="n">
-        <v>0.0</v>
+        <v>1.56</v>
       </c>
       <c r="F56" s="10" t="n">
-        <v>6599108.0</v>
+        <v>6700844.0</v>
       </c>
     </row>
     <row r="57">
@@ -2493,16 +2493,16 @@
         <v>118</v>
       </c>
       <c r="C57" s="10" t="n">
-        <v>91900.0</v>
+        <v>14750.0</v>
       </c>
       <c r="D57" s="10" t="n">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="E57" s="7" t="n">
-        <v>0.11</v>
+        <v>2.79</v>
       </c>
       <c r="F57" s="10" t="n">
-        <v>6504049.0</v>
+        <v>6440018.0</v>
       </c>
     </row>
     <row r="58">
@@ -2513,16 +2513,16 @@
         <v>120</v>
       </c>
       <c r="C58" s="10" t="n">
-        <v>14150.0</v>
+        <v>34050.0</v>
       </c>
       <c r="D58" s="10" t="n">
-        <v>-100.0</v>
+        <v>50.0</v>
       </c>
       <c r="E58" s="7" t="n">
-        <v>-0.7</v>
+        <v>0.15</v>
       </c>
       <c r="F58" s="10" t="n">
-        <v>6178051.0</v>
+        <v>6513033.0</v>
       </c>
     </row>
     <row r="59">
@@ -2533,16 +2533,16 @@
         <v>122</v>
       </c>
       <c r="C59" s="10" t="n">
-        <v>11400.0</v>
+        <v>11650.0</v>
       </c>
       <c r="D59" s="10" t="n">
-        <v>-100.0</v>
+        <v>0.0</v>
       </c>
       <c r="E59" s="7" t="n">
-        <v>-0.87</v>
+        <v>0.0</v>
       </c>
       <c r="F59" s="10" t="n">
-        <v>6085320.0</v>
+        <v>6218770.0</v>
       </c>
     </row>
     <row r="60">
@@ -2553,16 +2553,16 @@
         <v>124</v>
       </c>
       <c r="C60" s="10" t="n">
-        <v>160000.0</v>
+        <v>395000.0</v>
       </c>
       <c r="D60" s="10" t="n">
-        <v>4000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="E60" s="7" t="n">
-        <v>2.56</v>
+        <v>1.94</v>
       </c>
       <c r="F60" s="10" t="n">
-        <v>6058928.0</v>
+        <v>5946403.0</v>
       </c>
     </row>
     <row r="61">
@@ -2573,16 +2573,16 @@
         <v>126</v>
       </c>
       <c r="C61" s="10" t="n">
-        <v>27900.0</v>
+        <v>27250.0</v>
       </c>
       <c r="D61" s="10" t="n">
-        <v>250.0</v>
+        <v>0.0</v>
       </c>
       <c r="E61" s="7" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="F61" s="10" t="n">
-        <v>5968940.0</v>
+        <v>5829879.0</v>
       </c>
     </row>
     <row r="62">
@@ -2593,16 +2593,16 @@
         <v>128</v>
       </c>
       <c r="C62" s="10" t="n">
-        <v>391500.0</v>
+        <v>152000.0</v>
       </c>
       <c r="D62" s="10" t="n">
-        <v>1500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="E62" s="7" t="n">
-        <v>0.38</v>
+        <v>2.36</v>
       </c>
       <c r="F62" s="10" t="n">
-        <v>5893714.0</v>
+        <v>5755981.0</v>
       </c>
     </row>
     <row r="63">
@@ -2613,16 +2613,16 @@
         <v>130</v>
       </c>
       <c r="C63" s="10" t="n">
-        <v>42300.0</v>
+        <v>42600.0</v>
       </c>
       <c r="D63" s="10" t="n">
-        <v>900.0</v>
+        <v>1650.0</v>
       </c>
       <c r="E63" s="7" t="n">
-        <v>2.17</v>
+        <v>4.03</v>
       </c>
       <c r="F63" s="10" t="n">
-        <v>5543470.0</v>
+        <v>5684790.0</v>
       </c>
     </row>
     <row r="64">
@@ -2633,16 +2633,16 @@
         <v>132</v>
       </c>
       <c r="C64" s="10" t="n">
-        <v>41500.0</v>
+        <v>6300.0</v>
       </c>
       <c r="D64" s="10" t="n">
-        <v>50.0</v>
+        <v>110.0</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>0.12</v>
+        <v>1.78</v>
       </c>
       <c r="F64" s="10" t="n">
-        <v>5538000.0</v>
+        <v>5544000.0</v>
       </c>
     </row>
     <row r="65">
@@ -2653,16 +2653,16 @@
         <v>134</v>
       </c>
       <c r="C65" s="10" t="n">
-        <v>6080.0</v>
+        <v>40900.0</v>
       </c>
       <c r="D65" s="10" t="n">
-        <v>90.0</v>
+        <v>950.0</v>
       </c>
       <c r="E65" s="7" t="n">
-        <v>1.5</v>
+        <v>2.38</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>5350400.0</v>
+        <v>5359998.0</v>
       </c>
     </row>
     <row r="66">
@@ -2673,16 +2673,16 @@
         <v>136</v>
       </c>
       <c r="C66" s="10" t="n">
-        <v>8420.0</v>
+        <v>8330.0</v>
       </c>
       <c r="D66" s="10" t="n">
-        <v>-30.0</v>
+        <v>30.0</v>
       </c>
       <c r="E66" s="7" t="n">
-        <v>-0.36</v>
+        <v>0.36</v>
       </c>
       <c r="F66" s="10" t="n">
-        <v>5180964.0</v>
+        <v>5125586.0</v>
       </c>
     </row>
     <row r="67">
@@ -2693,16 +2693,16 @@
         <v>138</v>
       </c>
       <c r="C67" s="10" t="n">
-        <v>66300.0</v>
+        <v>44700.0</v>
       </c>
       <c r="D67" s="10" t="n">
-        <v>-400.0</v>
+        <v>950.0</v>
       </c>
       <c r="E67" s="7" t="n">
-        <v>-0.6</v>
+        <v>2.17</v>
       </c>
       <c r="F67" s="10" t="n">
-        <v>4892915.0</v>
+        <v>4977603.0</v>
       </c>
     </row>
     <row r="68">
@@ -2713,16 +2713,16 @@
         <v>140</v>
       </c>
       <c r="C68" s="10" t="n">
-        <v>69800.0</v>
+        <v>66100.0</v>
       </c>
       <c r="D68" s="10" t="n">
-        <v>0.0</v>
+        <v>-400.0</v>
       </c>
       <c r="E68" s="7" t="n">
-        <v>0.0</v>
+        <v>-0.6</v>
       </c>
       <c r="F68" s="10" t="n">
-        <v>4941840.0</v>
+        <v>4878155.0</v>
       </c>
     </row>
     <row r="69">
@@ -2733,16 +2733,16 @@
         <v>142</v>
       </c>
       <c r="C69" s="10" t="n">
-        <v>44500.0</v>
+        <v>66400.0</v>
       </c>
       <c r="D69" s="10" t="n">
-        <v>-550.0</v>
+        <v>-700.0</v>
       </c>
       <c r="E69" s="7" t="n">
-        <v>-1.22</v>
+        <v>-1.04</v>
       </c>
       <c r="F69" s="10" t="n">
-        <v>4955332.0</v>
+        <v>4701120.0</v>
       </c>
     </row>
     <row r="70">
@@ -2753,16 +2753,16 @@
         <v>144</v>
       </c>
       <c r="C70" s="10" t="n">
-        <v>24300.0</v>
+        <v>24750.0</v>
       </c>
       <c r="D70" s="10" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="E70" s="7" t="n">
-        <v>0.0</v>
+        <v>1.64</v>
       </c>
       <c r="F70" s="10" t="n">
-        <v>4762800.0</v>
+        <v>4851000.0</v>
       </c>
     </row>
     <row r="71">
@@ -2773,16 +2773,16 @@
         <v>146</v>
       </c>
       <c r="C71" s="10" t="n">
-        <v>7010.0</v>
+        <v>153500.0</v>
       </c>
       <c r="D71" s="10" t="n">
-        <v>180.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E71" s="7" t="n">
-        <v>2.64</v>
+        <v>1.32</v>
       </c>
       <c r="F71" s="10" t="n">
-        <v>4625132.0</v>
+        <v>4650412.0</v>
       </c>
     </row>
     <row r="72">
@@ -2793,16 +2793,16 @@
         <v>148</v>
       </c>
       <c r="C72" s="10" t="n">
-        <v>154000.0</v>
+        <v>58900.0</v>
       </c>
       <c r="D72" s="10" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="E72" s="7" t="n">
-        <v>0.0</v>
+        <v>1.03</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>4665560.0</v>
+        <v>4652693.0</v>
       </c>
     </row>
     <row r="73">
@@ -2813,16 +2813,16 @@
         <v>150</v>
       </c>
       <c r="C73" s="10" t="n">
-        <v>57700.0</v>
+        <v>6770.0</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>400.0</v>
+        <v>70.0</v>
       </c>
       <c r="E73" s="7" t="n">
-        <v>0.7</v>
+        <v>1.04</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>4557901.0</v>
+        <v>4466782.0</v>
       </c>
     </row>
     <row r="74">
@@ -2833,16 +2833,16 @@
         <v>152</v>
       </c>
       <c r="C74" s="10" t="n">
-        <v>97100.0</v>
+        <v>44550.0</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>1500.0</v>
+        <v>-300.0</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>1.57</v>
+        <v>-0.67</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>4477362.0</v>
+        <v>4342516.0</v>
       </c>
     </row>
     <row r="75">
@@ -2853,16 +2853,16 @@
         <v>154</v>
       </c>
       <c r="C75" s="10" t="n">
-        <v>59100.0</v>
+        <v>59800.0</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>-900.0</v>
+        <v>700.0</v>
       </c>
       <c r="E75" s="7" t="n">
-        <v>-1.5</v>
+        <v>1.18</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>4327980.0</v>
+        <v>4379242.0</v>
       </c>
     </row>
     <row r="76">
@@ -2873,16 +2873,16 @@
         <v>156</v>
       </c>
       <c r="C76" s="10" t="n">
-        <v>34500.0</v>
+        <v>41850.0</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>50.0</v>
+        <v>-350.0</v>
       </c>
       <c r="E76" s="7" t="n">
-        <v>0.15</v>
+        <v>-0.83</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>4273690.0</v>
+        <v>4195428.0</v>
       </c>
     </row>
     <row r="77">
@@ -2893,16 +2893,16 @@
         <v>158</v>
       </c>
       <c r="C77" s="10" t="n">
-        <v>75500.0</v>
+        <v>34750.0</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>-200.0</v>
+        <v>-1050.0</v>
       </c>
       <c r="E77" s="7" t="n">
-        <v>-0.26</v>
+        <v>-2.93</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>4207312.0</v>
+        <v>4304659.0</v>
       </c>
     </row>
     <row r="78">
@@ -2913,16 +2913,16 @@
         <v>160</v>
       </c>
       <c r="C78" s="10" t="n">
-        <v>42550.0</v>
+        <v>75200.0</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>-50.0</v>
+        <v>500.0</v>
       </c>
       <c r="E78" s="7" t="n">
-        <v>-0.12</v>
+        <v>0.67</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>4147566.0</v>
+        <v>4190595.0</v>
       </c>
     </row>
     <row r="79">
@@ -2933,16 +2933,16 @@
         <v>162</v>
       </c>
       <c r="C79" s="10" t="n">
-        <v>48100.0</v>
+        <v>90500.0</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>850.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E79" s="7" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>3966238.0</v>
+        <v>4173031.0</v>
       </c>
     </row>
     <row r="80">
@@ -2953,16 +2953,16 @@
         <v>164</v>
       </c>
       <c r="C80" s="10" t="n">
-        <v>8110.0</v>
+        <v>8230.0</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="E80" s="7" t="n">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>4086301.0</v>
+        <v>4146764.0</v>
       </c>
     </row>
     <row r="81">
@@ -2973,16 +2973,16 @@
         <v>166</v>
       </c>
       <c r="C81" s="10" t="n">
-        <v>44250.0</v>
+        <v>44050.0</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>50.0</v>
+        <v>-250.0</v>
       </c>
       <c r="E81" s="7" t="n">
-        <v>0.11</v>
+        <v>-0.56</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>4111505.0</v>
+        <v>4092922.0</v>
       </c>
     </row>
     <row r="82">
@@ -2993,16 +2993,16 @@
         <v>168</v>
       </c>
       <c r="C82" s="10" t="n">
-        <v>57000.0</v>
+        <v>47850.0</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>-3700.0</v>
+        <v>-350.0</v>
       </c>
       <c r="E82" s="7" t="n">
-        <v>-6.1</v>
+        <v>-0.73</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>3805392.0</v>
+        <v>3945624.0</v>
       </c>
     </row>
     <row r="83">
@@ -3013,16 +3013,16 @@
         <v>170</v>
       </c>
       <c r="C83" s="10" t="n">
-        <v>137000.0</v>
+        <v>306500.0</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>500.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E83" s="7" t="n">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>3818987.0</v>
+        <v>3775458.0</v>
       </c>
     </row>
     <row r="84">
@@ -3033,16 +3033,16 @@
         <v>172</v>
       </c>
       <c r="C84" s="10" t="n">
-        <v>33350.0</v>
+        <v>138500.0</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>100.0</v>
+        <v>-500.0</v>
       </c>
       <c r="E84" s="7" t="n">
-        <v>0.3</v>
+        <v>-0.36</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>3863894.0</v>
+        <v>3860801.0</v>
       </c>
     </row>
     <row r="85">
@@ -3053,16 +3053,16 @@
         <v>174</v>
       </c>
       <c r="C85" s="10" t="n">
-        <v>39250.0</v>
+        <v>33150.0</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>-150.0</v>
+        <v>150.0</v>
       </c>
       <c r="E85" s="7" t="n">
-        <v>-0.38</v>
+        <v>0.45</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>3934780.0</v>
+        <v>3840722.0</v>
       </c>
     </row>
     <row r="86">
@@ -3073,16 +3073,16 @@
         <v>176</v>
       </c>
       <c r="C86" s="10" t="n">
-        <v>297000.0</v>
+        <v>57900.0</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>2000.0</v>
+        <v>100.0</v>
       </c>
       <c r="E86" s="7" t="n">
-        <v>0.68</v>
+        <v>0.17</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>3658437.0</v>
+        <v>3865477.0</v>
       </c>
     </row>
     <row r="87">
@@ -3093,16 +3093,16 @@
         <v>178</v>
       </c>
       <c r="C87" s="10" t="n">
-        <v>42500.0</v>
+        <v>11050.0</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>-750.0</v>
+        <v>0.0</v>
       </c>
       <c r="E87" s="7" t="n">
-        <v>-1.73</v>
+        <v>0.0</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>3637213.0</v>
+        <v>3664908.0</v>
       </c>
     </row>
     <row r="88">
@@ -3113,16 +3113,16 @@
         <v>180</v>
       </c>
       <c r="C88" s="10" t="n">
-        <v>41050.0</v>
+        <v>40750.0</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>-50.0</v>
+        <v>550.0</v>
       </c>
       <c r="E88" s="7" t="n">
-        <v>-0.12</v>
+        <v>1.37</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>3665765.0</v>
+        <v>3761755.0</v>
       </c>
     </row>
     <row r="89">
@@ -3133,16 +3133,16 @@
         <v>182</v>
       </c>
       <c r="C89" s="10" t="n">
-        <v>40000.0</v>
+        <v>42450.0</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>1000.0</v>
+        <v>450.0</v>
       </c>
       <c r="E89" s="7" t="n">
-        <v>2.56</v>
+        <v>1.07</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>3692520.0</v>
+        <v>3632934.0</v>
       </c>
     </row>
     <row r="90">
@@ -3153,16 +3153,16 @@
         <v>184</v>
       </c>
       <c r="C90" s="10" t="n">
-        <v>11350.0</v>
+        <v>6750.0</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>-50.0</v>
+        <v>230.0</v>
       </c>
       <c r="E90" s="7" t="n">
-        <v>-0.44</v>
+        <v>3.53</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>3764408.0</v>
+        <v>3608344.0</v>
       </c>
     </row>
     <row r="91">
@@ -3173,16 +3173,16 @@
         <v>186</v>
       </c>
       <c r="C91" s="10" t="n">
-        <v>32800.0</v>
+        <v>40850.0</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>50.0</v>
+        <v>350.0</v>
       </c>
       <c r="E91" s="7" t="n">
-        <v>0.15</v>
+        <v>0.86</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>3441023.0</v>
+        <v>3647905.0</v>
       </c>
     </row>
     <row r="92">
@@ -3193,16 +3193,16 @@
         <v>188</v>
       </c>
       <c r="C92" s="10" t="n">
-        <v>86000.0</v>
+        <v>90400.0</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>2600.0</v>
+        <v>1700.0</v>
       </c>
       <c r="E92" s="7" t="n">
-        <v>3.12</v>
+        <v>1.92</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>3435025.0</v>
+        <v>3610770.0</v>
       </c>
     </row>
     <row r="93">
@@ -3213,16 +3213,16 @@
         <v>190</v>
       </c>
       <c r="C93" s="10" t="n">
-        <v>6570.0</v>
+        <v>88500.0</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="E93" s="7" t="n">
-        <v>3.14</v>
+        <v>0.68</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>3512122.0</v>
+        <v>3498948.0</v>
       </c>
     </row>
     <row r="94">
@@ -3233,16 +3233,16 @@
         <v>192</v>
       </c>
       <c r="C94" s="10" t="n">
-        <v>72600.0</v>
+        <v>33250.0</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>900.0</v>
+        <v>100.0</v>
       </c>
       <c r="E94" s="7" t="n">
-        <v>1.26</v>
+        <v>0.3</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>3223337.0</v>
+        <v>3488232.0</v>
       </c>
     </row>
     <row r="95">
@@ -3253,16 +3253,16 @@
         <v>194</v>
       </c>
       <c r="C95" s="10" t="n">
-        <v>86100.0</v>
+        <v>50200.0</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>-800.0</v>
+        <v>200.0</v>
       </c>
       <c r="E95" s="7" t="n">
-        <v>-0.92</v>
+        <v>0.4</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>3404061.0</v>
+        <v>3444909.0</v>
       </c>
     </row>
     <row r="96">
@@ -3273,16 +3273,16 @@
         <v>196</v>
       </c>
       <c r="C96" s="10" t="n">
-        <v>83500.0</v>
+        <v>72900.0</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>800.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E96" s="7" t="n">
-        <v>0.97</v>
+        <v>2.82</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>3277218.0</v>
+        <v>3236657.0</v>
       </c>
     </row>
     <row r="97">
@@ -3293,16 +3293,16 @@
         <v>198</v>
       </c>
       <c r="C97" s="10" t="n">
-        <v>16150.0</v>
+        <v>83500.0</v>
       </c>
       <c r="D97" s="10" t="n">
-        <v>150.0</v>
+        <v>-300.0</v>
       </c>
       <c r="E97" s="7" t="n">
-        <v>0.94</v>
+        <v>-0.36</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>3051048.0</v>
+        <v>3277218.0</v>
       </c>
     </row>
     <row r="98">
@@ -3313,16 +3313,16 @@
         <v>200</v>
       </c>
       <c r="C98" s="10" t="n">
-        <v>46050.0</v>
+        <v>16100.0</v>
       </c>
       <c r="D98" s="10" t="n">
-        <v>1450.0</v>
+        <v>-100.0</v>
       </c>
       <c r="E98" s="7" t="n">
-        <v>3.25</v>
+        <v>-0.62</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>3160121.0</v>
+        <v>3041602.0</v>
       </c>
     </row>
     <row r="99">
@@ -3333,16 +3333,16 @@
         <v>202</v>
       </c>
       <c r="C99" s="10" t="n">
-        <v>180500.0</v>
+        <v>25200.0</v>
       </c>
       <c r="D99" s="10" t="n">
-        <v>500.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>0.28</v>
+        <v>7.46</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>3119745.0</v>
+        <v>3109054.0</v>
       </c>
     </row>
     <row r="100">
@@ -3353,16 +3353,16 @@
         <v>204</v>
       </c>
       <c r="C100" s="10" t="n">
-        <v>24800.0</v>
+        <v>181000.0</v>
       </c>
       <c r="D100" s="10" t="n">
-        <v>-250.0</v>
+        <v>-3500.0</v>
       </c>
       <c r="E100" s="7" t="n">
-        <v>-1.0</v>
+        <v>-1.9</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>2853022.0</v>
+        <v>3128387.0</v>
       </c>
     </row>
     <row r="101">
@@ -3373,16 +3373,16 @@
         <v>206</v>
       </c>
       <c r="C101" s="10" t="n">
-        <v>129000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="D101" s="10" t="n">
-        <v>1500.0</v>
+        <v>-1500.0</v>
       </c>
       <c r="E101" s="7" t="n">
-        <v>1.18</v>
+        <v>-1.96</v>
       </c>
       <c r="F101" s="10" t="n">
-        <v>2942792.0</v>
+        <v>2866500.0</v>
       </c>
     </row>
     <row r="102">
@@ -3393,16 +3393,16 @@
         <v>208</v>
       </c>
       <c r="C102" s="10" t="n">
-        <v>321500.0</v>
+        <v>330500.0</v>
       </c>
       <c r="D102" s="10" t="n">
-        <v>3000.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="E102" s="7" t="n">
-        <v>0.94</v>
+        <v>-0.3</v>
       </c>
       <c r="F102" s="10" t="n">
-        <v>2857000.0</v>
+        <v>2936979.0</v>
       </c>
     </row>
     <row r="103">
@@ -3413,16 +3413,16 @@
         <v>210</v>
       </c>
       <c r="C103" s="10" t="n">
-        <v>78700.0</v>
+        <v>27650.0</v>
       </c>
       <c r="D103" s="10" t="n">
-        <v>200.0</v>
+        <v>650.0</v>
       </c>
       <c r="E103" s="7" t="n">
-        <v>0.25</v>
+        <v>2.41</v>
       </c>
       <c r="F103" s="10" t="n">
-        <v>3007914.0</v>
+        <v>2966587.0</v>
       </c>
     </row>
     <row r="104">
@@ -3433,16 +3433,16 @@
         <v>212</v>
       </c>
       <c r="C104" s="10" t="n">
-        <v>28800.0</v>
+        <v>131000.0</v>
       </c>
       <c r="D104" s="10" t="n">
-        <v>-150.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="E104" s="7" t="n">
-        <v>-0.52</v>
+        <v>-0.76</v>
       </c>
       <c r="F104" s="10" t="n">
-        <v>3015876.0</v>
+        <v>2988417.0</v>
       </c>
     </row>
     <row r="105">
@@ -3453,16 +3453,16 @@
         <v>214</v>
       </c>
       <c r="C105" s="10" t="n">
-        <v>32750.0</v>
+        <v>28950.0</v>
       </c>
       <c r="D105" s="10" t="n">
-        <v>600.0</v>
+        <v>-50.0</v>
       </c>
       <c r="E105" s="7" t="n">
-        <v>1.87</v>
+        <v>-0.17</v>
       </c>
       <c r="F105" s="10" t="n">
-        <v>2927850.0</v>
+        <v>3031584.0</v>
       </c>
     </row>
     <row r="106">
@@ -3473,16 +3473,16 @@
         <v>216</v>
       </c>
       <c r="C106" s="10" t="n">
-        <v>94600.0</v>
+        <v>32150.0</v>
       </c>
       <c r="D106" s="10" t="n">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="E106" s="7" t="n">
-        <v>0.11</v>
+        <v>1.26</v>
       </c>
       <c r="F106" s="10" t="n">
-        <v>2676116.0</v>
+        <v>2874210.0</v>
       </c>
     </row>
     <row r="107">
@@ -3493,16 +3493,16 @@
         <v>218</v>
       </c>
       <c r="C107" s="10" t="n">
-        <v>26500.0</v>
+        <v>53600.0</v>
       </c>
       <c r="D107" s="10" t="n">
-        <v>0.0</v>
+        <v>-600.0</v>
       </c>
       <c r="E107" s="7" t="n">
-        <v>0.0</v>
+        <v>-1.11</v>
       </c>
       <c r="F107" s="10" t="n">
-        <v>2843203.0</v>
+        <v>2713768.0</v>
       </c>
     </row>
     <row r="108">
@@ -3513,16 +3513,16 @@
         <v>220</v>
       </c>
       <c r="C108" s="10" t="n">
-        <v>6550.0</v>
+        <v>96100.0</v>
       </c>
       <c r="D108" s="10" t="n">
-        <v>-80.0</v>
+        <v>0.0</v>
       </c>
       <c r="E108" s="7" t="n">
-        <v>-1.21</v>
+        <v>0.0</v>
       </c>
       <c r="F108" s="10" t="n">
-        <v>2722328.0</v>
+        <v>2718549.0</v>
       </c>
     </row>
     <row r="109">
@@ -3533,16 +3533,16 @@
         <v>222</v>
       </c>
       <c r="C109" s="10" t="n">
-        <v>22950.0</v>
+        <v>27000.0</v>
       </c>
       <c r="D109" s="10" t="n">
-        <v>1000.0</v>
+        <v>600.0</v>
       </c>
       <c r="E109" s="7" t="n">
-        <v>4.56</v>
+        <v>2.27</v>
       </c>
       <c r="F109" s="10" t="n">
-        <v>2831460.0</v>
+        <v>2691900.0</v>
       </c>
     </row>
     <row r="110">
@@ -3553,16 +3553,16 @@
         <v>224</v>
       </c>
       <c r="C110" s="10" t="n">
-        <v>3140.0</v>
+        <v>24250.0</v>
       </c>
       <c r="D110" s="10" t="n">
-        <v>25.0</v>
+        <v>-300.0</v>
       </c>
       <c r="E110" s="7" t="n">
-        <v>0.8</v>
+        <v>-1.22</v>
       </c>
       <c r="F110" s="10" t="n">
-        <v>2727184.0</v>
+        <v>2789750.0</v>
       </c>
     </row>
     <row r="111">
@@ -3573,16 +3573,16 @@
         <v>226</v>
       </c>
       <c r="C111" s="10" t="n">
-        <v>36500.0</v>
+        <v>6550.0</v>
       </c>
       <c r="D111" s="10" t="n">
-        <v>-450.0</v>
+        <v>20.0</v>
       </c>
       <c r="E111" s="7" t="n">
-        <v>-1.22</v>
+        <v>0.31</v>
       </c>
       <c r="F111" s="10" t="n">
-        <v>2559877.0</v>
+        <v>2722328.0</v>
       </c>
     </row>
     <row r="112">
@@ -3593,16 +3593,16 @@
         <v>228</v>
       </c>
       <c r="C112" s="10" t="n">
-        <v>87700.0</v>
+        <v>3105.0</v>
       </c>
       <c r="D112" s="10" t="n">
-        <v>-300.0</v>
+        <v>35.0</v>
       </c>
       <c r="E112" s="7" t="n">
-        <v>-0.34</v>
+        <v>1.14</v>
       </c>
       <c r="F112" s="10" t="n">
-        <v>2558823.0</v>
+        <v>2696786.0</v>
       </c>
     </row>
     <row r="113">
@@ -3613,16 +3613,16 @@
         <v>230</v>
       </c>
       <c r="C113" s="10" t="n">
-        <v>256000.0</v>
+        <v>36250.0</v>
       </c>
       <c r="D113" s="10" t="n">
-        <v>1000.0</v>
+        <v>-300.0</v>
       </c>
       <c r="E113" s="7" t="n">
-        <v>0.39</v>
+        <v>-0.82</v>
       </c>
       <c r="F113" s="10" t="n">
-        <v>2520366.0</v>
+        <v>2542343.0</v>
       </c>
     </row>
     <row r="114">
@@ -3633,16 +3633,16 @@
         <v>232</v>
       </c>
       <c r="C114" s="10" t="n">
-        <v>107000.0</v>
+        <v>88000.0</v>
       </c>
       <c r="D114" s="10" t="n">
-        <v>0.0</v>
+        <v>1100.0</v>
       </c>
       <c r="E114" s="7" t="n">
-        <v>0.0</v>
+        <v>1.27</v>
       </c>
       <c r="F114" s="10" t="n">
-        <v>2551883.0</v>
+        <v>2567576.0</v>
       </c>
     </row>
     <row r="115">
@@ -3653,16 +3653,16 @@
         <v>234</v>
       </c>
       <c r="C115" s="10" t="n">
-        <v>52000.0</v>
+        <v>257500.0</v>
       </c>
       <c r="D115" s="10" t="n">
-        <v>-500.0</v>
+        <v>500.0</v>
       </c>
       <c r="E115" s="7" t="n">
-        <v>-0.95</v>
+        <v>0.19</v>
       </c>
       <c r="F115" s="10" t="n">
-        <v>2632760.0</v>
+        <v>2535134.0</v>
       </c>
     </row>
     <row r="116">
@@ -3673,16 +3673,16 @@
         <v>236</v>
       </c>
       <c r="C116" s="10" t="n">
-        <v>70100.0</v>
+        <v>68600.0</v>
       </c>
       <c r="D116" s="10" t="n">
-        <v>-700.0</v>
+        <v>100.0</v>
       </c>
       <c r="E116" s="7" t="n">
-        <v>-0.99</v>
+        <v>0.15</v>
       </c>
       <c r="F116" s="10" t="n">
-        <v>2663742.0</v>
+        <v>2606744.0</v>
       </c>
     </row>
     <row r="117">
@@ -3693,16 +3693,16 @@
         <v>238</v>
       </c>
       <c r="C117" s="10" t="n">
-        <v>38500.0</v>
+        <v>54200.0</v>
       </c>
       <c r="D117" s="10" t="n">
-        <v>-350.0</v>
+        <v>-100.0</v>
       </c>
       <c r="E117" s="7" t="n">
-        <v>-0.9</v>
+        <v>-0.18</v>
       </c>
       <c r="F117" s="10" t="n">
-        <v>2521508.0</v>
+        <v>2545076.0</v>
       </c>
     </row>
     <row r="118">
@@ -3713,16 +3713,16 @@
         <v>240</v>
       </c>
       <c r="C118" s="10" t="n">
-        <v>26450.0</v>
+        <v>97600.0</v>
       </c>
       <c r="D118" s="10" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="E118" s="7" t="n">
-        <v>1.15</v>
+        <v>0.0</v>
       </c>
       <c r="F118" s="10" t="n">
-        <v>2637065.0</v>
+        <v>2559024.0</v>
       </c>
     </row>
     <row r="119">
@@ -3733,16 +3733,16 @@
         <v>242</v>
       </c>
       <c r="C119" s="10" t="n">
-        <v>100500.0</v>
+        <v>62000.0</v>
       </c>
       <c r="D119" s="10" t="n">
-        <v>600.0</v>
+        <v>-300.0</v>
       </c>
       <c r="E119" s="7" t="n">
-        <v>0.6</v>
+        <v>-0.48</v>
       </c>
       <c r="F119" s="10" t="n">
-        <v>2635061.0</v>
+        <v>2614627.0</v>
       </c>
     </row>
     <row r="120">
@@ -3753,16 +3753,16 @@
         <v>244</v>
       </c>
       <c r="C120" s="10" t="n">
-        <v>62500.0</v>
+        <v>7920.0</v>
       </c>
       <c r="D120" s="10" t="n">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="E120" s="7" t="n">
-        <v>0.0</v>
+        <v>0.89</v>
       </c>
       <c r="F120" s="10" t="n">
-        <v>2635713.0</v>
+        <v>2581407.0</v>
       </c>
     </row>
     <row r="121">
@@ -3773,16 +3773,16 @@
         <v>246</v>
       </c>
       <c r="C121" s="10" t="n">
-        <v>7970.0</v>
+        <v>230000.0</v>
       </c>
       <c r="D121" s="10" t="n">
-        <v>-10.0</v>
+        <v>12000.0</v>
       </c>
       <c r="E121" s="7" t="n">
-        <v>-0.13</v>
+        <v>5.5</v>
       </c>
       <c r="F121" s="10" t="n">
-        <v>2597704.0</v>
+        <v>2607095.0</v>
       </c>
     </row>
     <row r="122">
@@ -3793,16 +3793,16 @@
         <v>248</v>
       </c>
       <c r="C122" s="10" t="n">
-        <v>53000.0</v>
+        <v>36700.0</v>
       </c>
       <c r="D122" s="10" t="n">
-        <v>1400.0</v>
+        <v>-700.0</v>
       </c>
       <c r="E122" s="7" t="n">
-        <v>2.71</v>
+        <v>-1.87</v>
       </c>
       <c r="F122" s="10" t="n">
-        <v>2488727.0</v>
+        <v>2403620.0</v>
       </c>
     </row>
     <row r="123">
@@ -3813,16 +3813,16 @@
         <v>250</v>
       </c>
       <c r="C123" s="10" t="n">
-        <v>227000.0</v>
+        <v>98700.0</v>
       </c>
       <c r="D123" s="10" t="n">
-        <v>7000.0</v>
+        <v>100.0</v>
       </c>
       <c r="E123" s="7" t="n">
-        <v>3.18</v>
+        <v>0.1</v>
       </c>
       <c r="F123" s="10" t="n">
-        <v>2573089.0</v>
+        <v>2353933.0</v>
       </c>
     </row>
     <row r="124">
@@ -3833,16 +3833,16 @@
         <v>252</v>
       </c>
       <c r="C124" s="10" t="n">
-        <v>523000.0</v>
+        <v>30500.0</v>
       </c>
       <c r="D124" s="10" t="n">
-        <v>-1000.0</v>
+        <v>300.0</v>
       </c>
       <c r="E124" s="7" t="n">
-        <v>-0.19</v>
+        <v>0.99</v>
       </c>
       <c r="F124" s="10" t="n">
-        <v>2343013.0</v>
+        <v>2286241.0</v>
       </c>
     </row>
     <row r="125">
@@ -3853,16 +3853,16 @@
         <v>254</v>
       </c>
       <c r="C125" s="10" t="n">
-        <v>132000.0</v>
+        <v>1755.0</v>
       </c>
       <c r="D125" s="10" t="n">
-        <v>-500.0</v>
+        <v>-30.0</v>
       </c>
       <c r="E125" s="7" t="n">
-        <v>-0.38</v>
+        <v>-1.68</v>
       </c>
       <c r="F125" s="10" t="n">
-        <v>2325943.0</v>
+        <v>2184050.0</v>
       </c>
     </row>
     <row r="126">
@@ -3873,16 +3873,16 @@
         <v>256</v>
       </c>
       <c r="C126" s="10" t="n">
-        <v>30600.0</v>
+        <v>83400.0</v>
       </c>
       <c r="D126" s="10" t="n">
-        <v>50.0</v>
+        <v>-500.0</v>
       </c>
       <c r="E126" s="7" t="n">
-        <v>0.16</v>
+        <v>-0.6</v>
       </c>
       <c r="F126" s="10" t="n">
-        <v>2293737.0</v>
+        <v>2151720.0</v>
       </c>
     </row>
     <row r="127">
@@ -3893,16 +3893,16 @@
         <v>258</v>
       </c>
       <c r="C127" s="10" t="n">
-        <v>1805.0</v>
+        <v>506000.0</v>
       </c>
       <c r="D127" s="10" t="n">
-        <v>10.0</v>
+        <v>6500.0</v>
       </c>
       <c r="E127" s="7" t="n">
-        <v>0.56</v>
+        <v>1.3</v>
       </c>
       <c r="F127" s="10" t="n">
-        <v>2246274.0</v>
+        <v>2266854.0</v>
       </c>
     </row>
     <row r="128">
@@ -3913,16 +3913,16 @@
         <v>260</v>
       </c>
       <c r="C128" s="10" t="n">
-        <v>50600.0</v>
+        <v>35200.0</v>
       </c>
       <c r="D128" s="10" t="n">
-        <v>-300.0</v>
+        <v>-200.0</v>
       </c>
       <c r="E128" s="7" t="n">
-        <v>-0.59</v>
+        <v>-0.56</v>
       </c>
       <c r="F128" s="10" t="n">
-        <v>2242160.0</v>
+        <v>2138478.0</v>
       </c>
     </row>
     <row r="129">
@@ -3933,16 +3933,16 @@
         <v>262</v>
       </c>
       <c r="C129" s="10" t="n">
-        <v>190500.0</v>
+        <v>49700.0</v>
       </c>
       <c r="D129" s="10" t="n">
-        <v>-500.0</v>
+        <v>-300.0</v>
       </c>
       <c r="E129" s="7" t="n">
-        <v>-0.26</v>
+        <v>-0.6</v>
       </c>
       <c r="F129" s="10" t="n">
-        <v>2226285.0</v>
+        <v>2202280.0</v>
       </c>
     </row>
     <row r="130">
@@ -3953,16 +3953,16 @@
         <v>264</v>
       </c>
       <c r="C130" s="10" t="n">
-        <v>86100.0</v>
+        <v>129000.0</v>
       </c>
       <c r="D130" s="10" t="n">
-        <v>600.0</v>
+        <v>3500.0</v>
       </c>
       <c r="E130" s="7" t="n">
-        <v>0.7</v>
+        <v>2.79</v>
       </c>
       <c r="F130" s="10" t="n">
-        <v>2221380.0</v>
+        <v>2273081.0</v>
       </c>
     </row>
     <row r="131">
@@ -3973,16 +3973,16 @@
         <v>266</v>
       </c>
       <c r="C131" s="10" t="n">
-        <v>19150.0</v>
+        <v>191500.0</v>
       </c>
       <c r="D131" s="10" t="n">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E131" s="7" t="n">
-        <v>0.0</v>
+        <v>1.06</v>
       </c>
       <c r="F131" s="10" t="n">
-        <v>2090075.0</v>
+        <v>2237972.0</v>
       </c>
     </row>
     <row r="132">
@@ -3993,16 +3993,16 @@
         <v>268</v>
       </c>
       <c r="C132" s="10" t="n">
-        <v>21200.0</v>
+        <v>171500.0</v>
       </c>
       <c r="D132" s="10" t="n">
-        <v>350.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E132" s="7" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="F132" s="10" t="n">
-        <v>1963265.0</v>
+        <v>1987098.0</v>
       </c>
     </row>
     <row r="133">
@@ -4013,16 +4013,16 @@
         <v>270</v>
       </c>
       <c r="C133" s="10" t="n">
-        <v>34000.0</v>
+        <v>19250.0</v>
       </c>
       <c r="D133" s="10" t="n">
-        <v>1500.0</v>
+        <v>150.0</v>
       </c>
       <c r="E133" s="7" t="n">
-        <v>4.62</v>
+        <v>0.79</v>
       </c>
       <c r="F133" s="10" t="n">
-        <v>2065576.0</v>
+        <v>2100989.0</v>
       </c>
     </row>
     <row r="134">
@@ -4033,16 +4033,16 @@
         <v>272</v>
       </c>
       <c r="C134" s="10" t="n">
-        <v>314500.0</v>
+        <v>18600.0</v>
       </c>
       <c r="D134" s="10" t="n">
-        <v>-500.0</v>
+        <v>500.0</v>
       </c>
       <c r="E134" s="7" t="n">
-        <v>-0.16</v>
+        <v>2.76</v>
       </c>
       <c r="F134" s="10" t="n">
-        <v>1912991.0</v>
+        <v>1775049.0</v>
       </c>
     </row>
     <row r="135">
@@ -4053,16 +4053,16 @@
         <v>274</v>
       </c>
       <c r="C135" s="10" t="n">
-        <v>83000.0</v>
+        <v>30300.0</v>
       </c>
       <c r="D135" s="10" t="n">
-        <v>700.0</v>
+        <v>100.0</v>
       </c>
       <c r="E135" s="7" t="n">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
       <c r="F135" s="10" t="n">
-        <v>1748895.0</v>
+        <v>1761702.0</v>
       </c>
     </row>
     <row r="136">
@@ -4073,16 +4073,16 @@
         <v>276</v>
       </c>
       <c r="C136" s="10" t="n">
-        <v>58900.0</v>
+        <v>314000.0</v>
       </c>
       <c r="D136" s="10" t="n">
-        <v>3800.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E136" s="7" t="n">
-        <v>6.9</v>
+        <v>0.64</v>
       </c>
       <c r="F136" s="10" t="n">
-        <v>1896580.0</v>
+        <v>1909950.0</v>
       </c>
     </row>
     <row r="137">
@@ -4093,16 +4093,16 @@
         <v>278</v>
       </c>
       <c r="C137" s="10" t="n">
-        <v>79900.0</v>
+        <v>83900.0</v>
       </c>
       <c r="D137" s="10" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="E137" s="7" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="F137" s="10" t="n">
-        <v>1880361.0</v>
+        <v>1767859.0</v>
       </c>
     </row>
     <row r="138">
@@ -4113,16 +4113,16 @@
         <v>280</v>
       </c>
       <c r="C138" s="10" t="n">
-        <v>425500.0</v>
+        <v>59800.0</v>
       </c>
       <c r="D138" s="10" t="n">
-        <v>-6500.0</v>
+        <v>500.0</v>
       </c>
       <c r="E138" s="7" t="n">
-        <v>-1.5</v>
+        <v>0.84</v>
       </c>
       <c r="F138" s="10" t="n">
-        <v>1841429.0</v>
+        <v>1925560.0</v>
       </c>
     </row>
     <row r="139">
@@ -4133,16 +4133,16 @@
         <v>282</v>
       </c>
       <c r="C139" s="10" t="n">
-        <v>41400.0</v>
+        <v>79800.0</v>
       </c>
       <c r="D139" s="10" t="n">
-        <v>-50.0</v>
+        <v>1800.0</v>
       </c>
       <c r="E139" s="7" t="n">
-        <v>-0.12</v>
+        <v>2.31</v>
       </c>
       <c r="F139" s="10" t="n">
-        <v>1863000.0</v>
+        <v>1878007.0</v>
       </c>
     </row>
     <row r="140">
@@ -4153,16 +4153,16 @@
         <v>284</v>
       </c>
       <c r="C140" s="10" t="n">
-        <v>164500.0</v>
+        <v>422000.0</v>
       </c>
       <c r="D140" s="10" t="n">
-        <v>0.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E140" s="7" t="n">
-        <v>0.0</v>
+        <v>0.36</v>
       </c>
       <c r="F140" s="10" t="n">
-        <v>1905992.0</v>
+        <v>1826282.0</v>
       </c>
     </row>
     <row r="141">
@@ -4173,16 +4173,16 @@
         <v>286</v>
       </c>
       <c r="C141" s="10" t="n">
-        <v>76600.0</v>
+        <v>61800.0</v>
       </c>
       <c r="D141" s="10" t="n">
-        <v>1000.0</v>
+        <v>2800.0</v>
       </c>
       <c r="E141" s="7" t="n">
-        <v>1.32</v>
+        <v>4.75</v>
       </c>
       <c r="F141" s="10" t="n">
-        <v>1792627.0</v>
+        <v>1803844.0</v>
       </c>
     </row>
     <row r="142">
@@ -4193,16 +4193,16 @@
         <v>288</v>
       </c>
       <c r="C142" s="10" t="n">
-        <v>34350.0</v>
+        <v>18650.0</v>
       </c>
       <c r="D142" s="10" t="n">
-        <v>-3950.0</v>
+        <v>1100.0</v>
       </c>
       <c r="E142" s="7" t="n">
-        <v>-10.31</v>
+        <v>6.27</v>
       </c>
       <c r="F142" s="10" t="n">
-        <v>1820034.0</v>
+        <v>1865166.0</v>
       </c>
     </row>
     <row r="143">
@@ -4213,16 +4213,16 @@
         <v>290</v>
       </c>
       <c r="C143" s="10" t="n">
-        <v>97900.0</v>
+        <v>33000.0</v>
       </c>
       <c r="D143" s="10" t="n">
-        <v>-400.0</v>
+        <v>-450.0</v>
       </c>
       <c r="E143" s="7" t="n">
-        <v>-0.41</v>
+        <v>-1.35</v>
       </c>
       <c r="F143" s="10" t="n">
-        <v>1617683.0</v>
+        <v>1748505.0</v>
       </c>
     </row>
     <row r="144">
@@ -4233,16 +4233,16 @@
         <v>292</v>
       </c>
       <c r="C144" s="10" t="n">
-        <v>17550.0</v>
+        <v>77300.0</v>
       </c>
       <c r="D144" s="10" t="n">
-        <v>350.0</v>
+        <v>100.0</v>
       </c>
       <c r="E144" s="7" t="n">
-        <v>2.03</v>
+        <v>0.13</v>
       </c>
       <c r="F144" s="10" t="n">
-        <v>1674845.0</v>
+        <v>1809009.0</v>
       </c>
     </row>
     <row r="145">
@@ -4253,16 +4253,16 @@
         <v>294</v>
       </c>
       <c r="C145" s="10" t="n">
-        <v>29750.0</v>
+        <v>20450.0</v>
       </c>
       <c r="D145" s="10" t="n">
-        <v>50.0</v>
+        <v>-100.0</v>
       </c>
       <c r="E145" s="7" t="n">
-        <v>0.17</v>
+        <v>-0.49</v>
       </c>
       <c r="F145" s="10" t="n">
-        <v>1729724.0</v>
+        <v>1893809.0</v>
       </c>
     </row>
     <row r="146">
@@ -4273,16 +4273,16 @@
         <v>296</v>
       </c>
       <c r="C146" s="10" t="n">
-        <v>186000.0</v>
+        <v>67000.0</v>
       </c>
       <c r="D146" s="10" t="n">
-        <v>1000.0</v>
+        <v>200.0</v>
       </c>
       <c r="E146" s="7" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="F146" s="10" t="n">
-        <v>1725872.0</v>
+        <v>1822071.0</v>
       </c>
     </row>
     <row r="147">
@@ -4293,16 +4293,16 @@
         <v>298</v>
       </c>
       <c r="C147" s="10" t="n">
-        <v>462500.0</v>
+        <v>95500.0</v>
       </c>
       <c r="D147" s="10" t="n">
-        <v>500.0</v>
+        <v>-1100.0</v>
       </c>
       <c r="E147" s="7" t="n">
-        <v>0.11</v>
+        <v>-1.14</v>
       </c>
       <c r="F147" s="10" t="n">
-        <v>1698291.0</v>
+        <v>1578026.0</v>
       </c>
     </row>
     <row r="148">
@@ -4313,16 +4313,16 @@
         <v>300</v>
       </c>
       <c r="C148" s="10" t="n">
-        <v>61000.0</v>
+        <v>184500.0</v>
       </c>
       <c r="D148" s="10" t="n">
-        <v>600.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E148" s="7" t="n">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="F148" s="10" t="n">
-        <v>1678665.0</v>
+        <v>1711954.0</v>
       </c>
     </row>
     <row r="149">
@@ -4333,16 +4333,16 @@
         <v>302</v>
       </c>
       <c r="C149" s="10" t="n">
-        <v>63500.0</v>
+        <v>466000.0</v>
       </c>
       <c r="D149" s="10" t="n">
-        <v>900.0</v>
+        <v>7000.0</v>
       </c>
       <c r="E149" s="7" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="F149" s="10" t="n">
-        <v>1726888.0</v>
+        <v>1711143.0</v>
       </c>
     </row>
     <row r="150">
@@ -4353,16 +4353,16 @@
         <v>304</v>
       </c>
       <c r="C150" s="10" t="n">
-        <v>58700.0</v>
+        <v>60200.0</v>
       </c>
       <c r="D150" s="10" t="n">
-        <v>-500.0</v>
+        <v>900.0</v>
       </c>
       <c r="E150" s="7" t="n">
-        <v>-0.84</v>
+        <v>1.52</v>
       </c>
       <c r="F150" s="10" t="n">
-        <v>1713360.0</v>
+        <v>1656649.0</v>
       </c>
     </row>
     <row r="151">
@@ -4373,16 +4373,16 @@
         <v>306</v>
       </c>
       <c r="C151" s="10" t="n">
-        <v>17450.0</v>
+        <v>21200.0</v>
       </c>
       <c r="D151" s="10" t="n">
-        <v>-250.0</v>
+        <v>-400.0</v>
       </c>
       <c r="E151" s="7" t="n">
-        <v>-1.41</v>
+        <v>-1.85</v>
       </c>
       <c r="F151" s="10" t="n">
-        <v>1745155.0</v>
+        <v>1577529.0</v>
       </c>
     </row>
     <row r="152">
@@ -4393,16 +4393,16 @@
         <v>308</v>
       </c>
       <c r="C152" s="10" t="n">
-        <v>21950.0</v>
+        <v>38350.0</v>
       </c>
       <c r="D152" s="10" t="n">
-        <v>150.0</v>
+        <v>-2200.0</v>
       </c>
       <c r="E152" s="7" t="n">
-        <v>0.69</v>
+        <v>-5.43</v>
       </c>
       <c r="F152" s="10" t="n">
-        <v>1633338.0</v>
+        <v>1725750.0</v>
       </c>
     </row>
     <row r="153">
@@ -4413,7 +4413,7 @@
         <v>310</v>
       </c>
       <c r="C153" s="10" t="n">
-        <v>72000.0</v>
+        <v>76700.0</v>
       </c>
       <c r="D153" s="10" t="n">
         <v>0.0</v>
@@ -4422,7 +4422,7 @@
         <v>0.0</v>
       </c>
       <c r="F153" s="10" t="n">
-        <v>1584000.0</v>
+        <v>1687400.0</v>
       </c>
     </row>
     <row r="154">
@@ -4433,16 +4433,16 @@
         <v>312</v>
       </c>
       <c r="C154" s="10" t="n">
-        <v>54700.0</v>
+        <v>53700.0</v>
       </c>
       <c r="D154" s="10" t="n">
-        <v>-100.0</v>
+        <v>-300.0</v>
       </c>
       <c r="E154" s="7" t="n">
-        <v>-0.18</v>
+        <v>-0.56</v>
       </c>
       <c r="F154" s="10" t="n">
-        <v>1689826.0</v>
+        <v>1658933.0</v>
       </c>
     </row>
     <row r="155">
@@ -4453,16 +4453,16 @@
         <v>314</v>
       </c>
       <c r="C155" s="10" t="n">
-        <v>36450.0</v>
+        <v>38150.0</v>
       </c>
       <c r="D155" s="10" t="n">
-        <v>1450.0</v>
+        <v>1350.0</v>
       </c>
       <c r="E155" s="7" t="n">
-        <v>4.14</v>
+        <v>3.67</v>
       </c>
       <c r="F155" s="10" t="n">
-        <v>1412802.0</v>
+        <v>1478694.0</v>
       </c>
     </row>
     <row r="156">
@@ -4473,16 +4473,16 @@
         <v>316</v>
       </c>
       <c r="C156" s="10" t="n">
-        <v>48950.0</v>
+        <v>48700.0</v>
       </c>
       <c r="D156" s="10" t="n">
-        <v>1150.0</v>
+        <v>600.0</v>
       </c>
       <c r="E156" s="7" t="n">
-        <v>2.41</v>
+        <v>1.25</v>
       </c>
       <c r="F156" s="10" t="n">
-        <v>1437481.0</v>
+        <v>1430140.0</v>
       </c>
     </row>
     <row r="157">
@@ -4493,16 +4493,16 @@
         <v>318</v>
       </c>
       <c r="C157" s="10" t="n">
-        <v>36900.0</v>
+        <v>36550.0</v>
       </c>
       <c r="D157" s="10" t="n">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
       <c r="E157" s="7" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="F157" s="10" t="n">
-        <v>1506081.0</v>
+        <v>1491795.0</v>
       </c>
     </row>
     <row r="158">
@@ -4513,16 +4513,16 @@
         <v>320</v>
       </c>
       <c r="C158" s="10" t="n">
-        <v>59700.0</v>
+        <v>58900.0</v>
       </c>
       <c r="D158" s="10" t="n">
-        <v>500.0</v>
+        <v>100.0</v>
       </c>
       <c r="E158" s="7" t="n">
-        <v>0.84</v>
+        <v>0.17</v>
       </c>
       <c r="F158" s="10" t="n">
-        <v>1251066.0</v>
+        <v>1234302.0</v>
       </c>
     </row>
     <row r="159">
@@ -4533,16 +4533,16 @@
         <v>322</v>
       </c>
       <c r="C159" s="10" t="n">
-        <v>14000.0</v>
+        <v>14150.0</v>
       </c>
       <c r="D159" s="10" t="n">
-        <v>50.0</v>
+        <v>-50.0</v>
       </c>
       <c r="E159" s="7" t="n">
-        <v>0.36</v>
+        <v>-0.35</v>
       </c>
       <c r="F159" s="10" t="n">
-        <v>1329093.0</v>
+        <v>1343334.0</v>
       </c>
     </row>
     <row r="160">
@@ -4553,16 +4553,16 @@
         <v>324</v>
       </c>
       <c r="C160" s="10" t="n">
-        <v>6300.0</v>
+        <v>707000.0</v>
       </c>
       <c r="D160" s="10" t="n">
-        <v>40.0</v>
+        <v>-1000.0</v>
       </c>
       <c r="E160" s="7" t="n">
-        <v>0.64</v>
+        <v>-0.14</v>
       </c>
       <c r="F160" s="10" t="n">
-        <v>1243851.0</v>
+        <v>1302322.0</v>
       </c>
     </row>
     <row r="161">
@@ -4573,16 +4573,16 @@
         <v>326</v>
       </c>
       <c r="C161" s="10" t="n">
-        <v>46000.0</v>
+        <v>4910.0</v>
       </c>
       <c r="D161" s="10" t="n">
-        <v>2250.0</v>
+        <v>45.0</v>
       </c>
       <c r="E161" s="7" t="n">
-        <v>5.14</v>
+        <v>0.92</v>
       </c>
       <c r="F161" s="10" t="n">
-        <v>1380000.0</v>
+        <v>1218601.0</v>
       </c>
     </row>
     <row r="162">
@@ -4593,16 +4593,16 @@
         <v>328</v>
       </c>
       <c r="C162" s="10" t="n">
-        <v>17300.0</v>
+        <v>4245.0</v>
       </c>
       <c r="D162" s="10" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="E162" s="7" t="n">
-        <v>0.0</v>
+        <v>1.19</v>
       </c>
       <c r="F162" s="10" t="n">
-        <v>1244902.0</v>
+        <v>1219420.0</v>
       </c>
     </row>
     <row r="163">
@@ -4613,16 +4613,16 @@
         <v>330</v>
       </c>
       <c r="C163" s="10" t="n">
-        <v>696000.0</v>
+        <v>45550.0</v>
       </c>
       <c r="D163" s="10" t="n">
-        <v>2000.0</v>
+        <v>-400.0</v>
       </c>
       <c r="E163" s="7" t="n">
-        <v>0.29</v>
+        <v>-0.87</v>
       </c>
       <c r="F163" s="10" t="n">
-        <v>1282060.0</v>
+        <v>1366500.0</v>
       </c>
     </row>
     <row r="164">
@@ -4633,16 +4633,16 @@
         <v>332</v>
       </c>
       <c r="C164" s="10" t="n">
-        <v>4750.0</v>
+        <v>17300.0</v>
       </c>
       <c r="D164" s="10" t="n">
-        <v>30.0</v>
+        <v>-100.0</v>
       </c>
       <c r="E164" s="7" t="n">
-        <v>0.64</v>
+        <v>-0.57</v>
       </c>
       <c r="F164" s="10" t="n">
-        <v>1178891.0</v>
+        <v>1244902.0</v>
       </c>
     </row>
     <row r="165">
@@ -4653,16 +4653,16 @@
         <v>334</v>
       </c>
       <c r="C165" s="10" t="n">
-        <v>59900.0</v>
+        <v>6470.0</v>
       </c>
       <c r="D165" s="10" t="n">
-        <v>-1200.0</v>
+        <v>70.0</v>
       </c>
       <c r="E165" s="7" t="n">
-        <v>-1.96</v>
+        <v>1.09</v>
       </c>
       <c r="F165" s="10" t="n">
-        <v>1159588.0</v>
+        <v>1277415.0</v>
       </c>
     </row>
     <row r="166">
@@ -4673,16 +4673,16 @@
         <v>336</v>
       </c>
       <c r="C166" s="10" t="n">
-        <v>76500.0</v>
+        <v>25200.0</v>
       </c>
       <c r="D166" s="10" t="n">
-        <v>300.0</v>
+        <v>250.0</v>
       </c>
       <c r="E166" s="7" t="n">
-        <v>0.39</v>
+        <v>1.0</v>
       </c>
       <c r="F166" s="10" t="n">
-        <v>1071000.0</v>
+        <v>1214723.0</v>
       </c>
     </row>
     <row r="167">
@@ -4693,16 +4693,16 @@
         <v>338</v>
       </c>
       <c r="C167" s="10" t="n">
-        <v>22350.0</v>
+        <v>1016000.0</v>
       </c>
       <c r="D167" s="10" t="n">
-        <v>-100.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E167" s="7" t="n">
-        <v>-0.45</v>
+        <v>0.2</v>
       </c>
       <c r="F167" s="10" t="n">
-        <v>1051080.0</v>
+        <v>1131214.0</v>
       </c>
     </row>
     <row r="168">
@@ -4713,16 +4713,16 @@
         <v>340</v>
       </c>
       <c r="C168" s="10" t="n">
-        <v>24500.0</v>
+        <v>76200.0</v>
       </c>
       <c r="D168" s="10" t="n">
-        <v>600.0</v>
+        <v>2900.0</v>
       </c>
       <c r="E168" s="7" t="n">
-        <v>2.51</v>
+        <v>3.96</v>
       </c>
       <c r="F168" s="10" t="n">
-        <v>1180980.0</v>
+        <v>1066800.0</v>
       </c>
     </row>
     <row r="169">
@@ -4733,16 +4733,16 @@
         <v>342</v>
       </c>
       <c r="C169" s="10" t="n">
-        <v>158500.0</v>
+        <v>22500.0</v>
       </c>
       <c r="D169" s="10" t="n">
-        <v>-1000.0</v>
+        <v>150.0</v>
       </c>
       <c r="E169" s="7" t="n">
-        <v>-0.63</v>
+        <v>0.67</v>
       </c>
       <c r="F169" s="10" t="n">
-        <v>1030250.0</v>
+        <v>1058135.0</v>
       </c>
     </row>
     <row r="170">
@@ -4753,16 +4753,16 @@
         <v>344</v>
       </c>
       <c r="C170" s="10" t="n">
-        <v>22150.0</v>
+        <v>157500.0</v>
       </c>
       <c r="D170" s="10" t="n">
-        <v>150.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E170" s="7" t="n">
-        <v>0.68</v>
+        <v>0.96</v>
       </c>
       <c r="F170" s="10" t="n">
-        <v>1162213.0</v>
+        <v>1023750.0</v>
       </c>
     </row>
     <row r="171">
@@ -4773,16 +4773,16 @@
         <v>346</v>
       </c>
       <c r="C171" s="10" t="n">
-        <v>66400.0</v>
+        <v>21400.0</v>
       </c>
       <c r="D171" s="10" t="n">
-        <v>-500.0</v>
+        <v>200.0</v>
       </c>
       <c r="E171" s="7" t="n">
-        <v>-0.75</v>
+        <v>0.94</v>
       </c>
       <c r="F171" s="10" t="n">
-        <v>1049150.0</v>
+        <v>1122861.0</v>
       </c>
     </row>
     <row r="172">
@@ -4793,16 +4793,16 @@
         <v>348</v>
       </c>
       <c r="C172" s="10" t="n">
-        <v>31750.0</v>
+        <v>59400.0</v>
       </c>
       <c r="D172" s="10" t="n">
-        <v>700.0</v>
+        <v>100.0</v>
       </c>
       <c r="E172" s="7" t="n">
-        <v>2.25</v>
+        <v>0.17</v>
       </c>
       <c r="F172" s="10" t="n">
-        <v>1133475.0</v>
+        <v>1149909.0</v>
       </c>
     </row>
     <row r="173">
@@ -4813,16 +4813,16 @@
         <v>350</v>
       </c>
       <c r="C173" s="10" t="n">
-        <v>4085.0</v>
+        <v>33150.0</v>
       </c>
       <c r="D173" s="10" t="n">
-        <v>-30.0</v>
+        <v>-500.0</v>
       </c>
       <c r="E173" s="7" t="n">
-        <v>-0.73</v>
+        <v>-1.49</v>
       </c>
       <c r="F173" s="10" t="n">
-        <v>1173458.0</v>
+        <v>1183455.0</v>
       </c>
     </row>
     <row r="174">
@@ -4833,16 +4833,16 @@
         <v>352</v>
       </c>
       <c r="C174" s="10" t="n">
-        <v>28000.0</v>
+        <v>28050.0</v>
       </c>
       <c r="D174" s="10" t="n">
-        <v>650.0</v>
+        <v>-450.0</v>
       </c>
       <c r="E174" s="7" t="n">
-        <v>2.38</v>
+        <v>-1.58</v>
       </c>
       <c r="F174" s="10" t="n">
-        <v>1142835.0</v>
+        <v>1145222.0</v>
       </c>
     </row>
     <row r="175">
@@ -4853,16 +4853,16 @@
         <v>354</v>
       </c>
       <c r="C175" s="10" t="n">
-        <v>28300.0</v>
+        <v>26650.0</v>
       </c>
       <c r="D175" s="10" t="n">
-        <v>750.0</v>
+        <v>-800.0</v>
       </c>
       <c r="E175" s="7" t="n">
-        <v>2.72</v>
+        <v>-2.91</v>
       </c>
       <c r="F175" s="10" t="n">
-        <v>1132000.0</v>
+        <v>1066000.0</v>
       </c>
     </row>
     <row r="176">
@@ -4873,16 +4873,16 @@
         <v>356</v>
       </c>
       <c r="C176" s="10" t="n">
-        <v>47400.0</v>
+        <v>47500.0</v>
       </c>
       <c r="D176" s="10" t="n">
-        <v>550.0</v>
+        <v>-500.0</v>
       </c>
       <c r="E176" s="7" t="n">
-        <v>1.17</v>
+        <v>-1.04</v>
       </c>
       <c r="F176" s="10" t="n">
-        <v>1084568.0</v>
+        <v>1086856.0</v>
       </c>
     </row>
     <row r="177">
@@ -4893,16 +4893,16 @@
         <v>358</v>
       </c>
       <c r="C177" s="10" t="n">
-        <v>96000.0</v>
+        <v>97800.0</v>
       </c>
       <c r="D177" s="10" t="n">
-        <v>500.0</v>
+        <v>900.0</v>
       </c>
       <c r="E177" s="7" t="n">
-        <v>0.52</v>
+        <v>0.93</v>
       </c>
       <c r="F177" s="10" t="n">
-        <v>1150852.0</v>
+        <v>1172430.0</v>
       </c>
     </row>
     <row r="178">
@@ -4913,16 +4913,16 @@
         <v>360</v>
       </c>
       <c r="C178" s="10" t="n">
-        <v>1002000.0</v>
+        <v>68100.0</v>
       </c>
       <c r="D178" s="10" t="n">
-        <v>3000.0</v>
+        <v>-300.0</v>
       </c>
       <c r="E178" s="7" t="n">
-        <v>0.3</v>
+        <v>-0.44</v>
       </c>
       <c r="F178" s="10" t="n">
-        <v>1115627.0</v>
+        <v>1076011.0</v>
       </c>
     </row>
     <row r="179">
@@ -4933,16 +4933,16 @@
         <v>362</v>
       </c>
       <c r="C179" s="10" t="n">
-        <v>23950.0</v>
+        <v>24400.0</v>
       </c>
       <c r="D179" s="10" t="n">
-        <v>200.0</v>
+        <v>50.0</v>
       </c>
       <c r="E179" s="7" t="n">
-        <v>0.84</v>
+        <v>0.21</v>
       </c>
       <c r="F179" s="10" t="n">
-        <v>829820.0</v>
+        <v>845412.0</v>
       </c>
     </row>
     <row r="180">
@@ -4953,16 +4953,16 @@
         <v>364</v>
       </c>
       <c r="C180" s="10" t="n">
-        <v>14800.0</v>
+        <v>14600.0</v>
       </c>
       <c r="D180" s="10" t="n">
-        <v>-150.0</v>
+        <v>200.0</v>
       </c>
       <c r="E180" s="7" t="n">
-        <v>-1.0</v>
+        <v>1.39</v>
       </c>
       <c r="F180" s="10" t="n">
-        <v>975428.0</v>
+        <v>962247.0</v>
       </c>
     </row>
     <row r="181">
@@ -4973,16 +4973,16 @@
         <v>366</v>
       </c>
       <c r="C181" s="10" t="n">
-        <v>12200.0</v>
+        <v>11950.0</v>
       </c>
       <c r="D181" s="10" t="n">
         <v>50.0</v>
       </c>
       <c r="E181" s="7" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="F181" s="10" t="n">
-        <v>866969.0</v>
+        <v>849203.0</v>
       </c>
     </row>
     <row r="182">
@@ -4993,16 +4993,16 @@
         <v>368</v>
       </c>
       <c r="C182" s="10" t="n">
-        <v>4985.0</v>
+        <v>5040.0</v>
       </c>
       <c r="D182" s="10" t="n">
         <v>30.0</v>
       </c>
       <c r="E182" s="7" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="F182" s="10" t="n">
-        <v>911720.0</v>
+        <v>921779.0</v>
       </c>
     </row>
     <row r="183">
@@ -5013,16 +5013,16 @@
         <v>370</v>
       </c>
       <c r="C183" s="10" t="n">
-        <v>13300.0</v>
+        <v>13200.0</v>
       </c>
       <c r="D183" s="10" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="E183" s="7" t="n">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="F183" s="10" t="n">
-        <v>913577.0</v>
+        <v>906708.0</v>
       </c>
     </row>
     <row r="184">
@@ -5033,16 +5033,16 @@
         <v>372</v>
       </c>
       <c r="C184" s="10" t="n">
-        <v>8890.0</v>
+        <v>9070.0</v>
       </c>
       <c r="D184" s="10" t="n">
-        <v>90.0</v>
+        <v>-20.0</v>
       </c>
       <c r="E184" s="7" t="n">
-        <v>1.02</v>
+        <v>-0.22</v>
       </c>
       <c r="F184" s="10" t="n">
-        <v>868593.0</v>
+        <v>886180.0</v>
       </c>
     </row>
     <row r="185">
@@ -5053,16 +5053,16 @@
         <v>374</v>
       </c>
       <c r="C185" s="10" t="n">
-        <v>236000.0</v>
+        <v>244000.0</v>
       </c>
       <c r="D185" s="10" t="n">
-        <v>4000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="E185" s="7" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="F185" s="10" t="n">
-        <v>867923.0</v>
+        <v>897344.0</v>
       </c>
     </row>
     <row r="186">
@@ -5073,16 +5073,16 @@
         <v>376</v>
       </c>
       <c r="C186" s="10" t="n">
-        <v>18500.0</v>
+        <v>18400.0</v>
       </c>
       <c r="D186" s="10" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="E186" s="7" t="n">
-        <v>0.0</v>
+        <v>0.27</v>
       </c>
       <c r="F186" s="10" t="n">
-        <v>966452.0</v>
+        <v>961228.0</v>
       </c>
     </row>
     <row r="187">
@@ -5093,16 +5093,16 @@
         <v>378</v>
       </c>
       <c r="C187" s="10" t="n">
-        <v>36800.0</v>
+        <v>37000.0</v>
       </c>
       <c r="D187" s="10" t="n">
-        <v>650.0</v>
+        <v>-100.0</v>
       </c>
       <c r="E187" s="7" t="n">
-        <v>1.8</v>
+        <v>-0.27</v>
       </c>
       <c r="F187" s="10" t="n">
-        <v>906384.0</v>
+        <v>911310.0</v>
       </c>
     </row>
     <row r="188">
@@ -5113,16 +5113,16 @@
         <v>380</v>
       </c>
       <c r="C188" s="10" t="n">
-        <v>22900.0</v>
+        <v>22600.0</v>
       </c>
       <c r="D188" s="10" t="n">
-        <v>150.0</v>
+        <v>50.0</v>
       </c>
       <c r="E188" s="7" t="n">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="F188" s="10" t="n">
-        <v>936120.0</v>
+        <v>923856.0</v>
       </c>
     </row>
     <row r="189">
@@ -5133,16 +5133,16 @@
         <v>382</v>
       </c>
       <c r="C189" s="10" t="n">
-        <v>33300.0</v>
+        <v>33550.0</v>
       </c>
       <c r="D189" s="10" t="n">
-        <v>750.0</v>
+        <v>100.0</v>
       </c>
       <c r="E189" s="7" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="F189" s="10" t="n">
-        <v>933208.0</v>
+        <v>940215.0</v>
       </c>
     </row>
     <row r="190">
@@ -5153,16 +5153,16 @@
         <v>384</v>
       </c>
       <c r="C190" s="10" t="n">
-        <v>15300.0</v>
+        <v>15450.0</v>
       </c>
       <c r="D190" s="10" t="n">
-        <v>0.0</v>
+        <v>-50.0</v>
       </c>
       <c r="E190" s="7" t="n">
-        <v>0.0</v>
+        <v>-0.32</v>
       </c>
       <c r="F190" s="10" t="n">
-        <v>946392.0</v>
+        <v>955670.0</v>
       </c>
     </row>
     <row r="191">
@@ -5173,16 +5173,16 @@
         <v>386</v>
       </c>
       <c r="C191" s="10" t="n">
-        <v>51300.0</v>
+        <v>51700.0</v>
       </c>
       <c r="D191" s="10" t="n">
-        <v>300.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E191" s="7" t="n">
-        <v>0.59</v>
+        <v>1.97</v>
       </c>
       <c r="F191" s="10" t="n">
-        <v>942612.0</v>
+        <v>949962.0</v>
       </c>
     </row>
     <row r="192">
@@ -5193,16 +5193,16 @@
         <v>388</v>
       </c>
       <c r="C192" s="10" t="n">
-        <v>86900.0</v>
+        <v>85600.0</v>
       </c>
       <c r="D192" s="10" t="n">
-        <v>2400.0</v>
+        <v>-900.0</v>
       </c>
       <c r="E192" s="7" t="n">
-        <v>2.84</v>
+        <v>-1.04</v>
       </c>
       <c r="F192" s="10" t="n">
-        <v>986272.0</v>
+        <v>971518.0</v>
       </c>
     </row>
     <row r="193">
@@ -5213,16 +5213,16 @@
         <v>390</v>
       </c>
       <c r="C193" s="10" t="n">
-        <v>15650.0</v>
+        <v>16200.0</v>
       </c>
       <c r="D193" s="10" t="n">
-        <v>500.0</v>
+        <v>-550.0</v>
       </c>
       <c r="E193" s="7" t="n">
-        <v>3.3</v>
+        <v>-3.28</v>
       </c>
       <c r="F193" s="10" t="n">
-        <v>948085.0</v>
+        <v>981404.0</v>
       </c>
     </row>
     <row r="194">
@@ -5233,16 +5233,16 @@
         <v>392</v>
       </c>
       <c r="C194" s="10" t="n">
-        <v>14150.0</v>
+        <v>14400.0</v>
       </c>
       <c r="D194" s="10" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="E194" s="7" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="F194" s="10" t="n">
-        <v>886433.0</v>
+        <v>902094.0</v>
       </c>
     </row>
     <row r="195">
@@ -5253,16 +5253,16 @@
         <v>394</v>
       </c>
       <c r="C195" s="10" t="n">
-        <v>84700.0</v>
+        <v>86800.0</v>
       </c>
       <c r="D195" s="10" t="n">
-        <v>900.0</v>
+        <v>800.0</v>
       </c>
       <c r="E195" s="7" t="n">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="F195" s="10" t="n">
-        <v>725394.0</v>
+        <v>743379.0</v>
       </c>
     </row>
     <row r="196">
@@ -5273,16 +5273,16 @@
         <v>396</v>
       </c>
       <c r="C196" s="10" t="n">
-        <v>6650.0</v>
+        <v>6840.0</v>
       </c>
       <c r="D196" s="10" t="n">
-        <v>70.0</v>
+        <v>-60.0</v>
       </c>
       <c r="E196" s="7" t="n">
-        <v>1.06</v>
+        <v>-0.87</v>
       </c>
       <c r="F196" s="10" t="n">
-        <v>649491.0</v>
+        <v>668048.0</v>
       </c>
     </row>
     <row r="197">
@@ -5293,16 +5293,16 @@
         <v>398</v>
       </c>
       <c r="C197" s="10" t="n">
-        <v>41700.0</v>
+        <v>40700.0</v>
       </c>
       <c r="D197" s="10" t="n">
-        <v>250.0</v>
+        <v>150.0</v>
       </c>
       <c r="E197" s="7" t="n">
-        <v>0.6</v>
+        <v>0.37</v>
       </c>
       <c r="F197" s="10" t="n">
-        <v>793879.0</v>
+        <v>774841.0</v>
       </c>
     </row>
     <row r="198">
@@ -5313,16 +5313,16 @@
         <v>400</v>
       </c>
       <c r="C198" s="10" t="n">
-        <v>34300.0</v>
+        <v>34400.0</v>
       </c>
       <c r="D198" s="10" t="n">
-        <v>-200.0</v>
+        <v>100.0</v>
       </c>
       <c r="E198" s="7" t="n">
-        <v>-0.58</v>
+        <v>0.29</v>
       </c>
       <c r="F198" s="10" t="n">
-        <v>769600.0</v>
+        <v>771844.0</v>
       </c>
     </row>
     <row r="199">
@@ -5333,16 +5333,16 @@
         <v>402</v>
       </c>
       <c r="C199" s="10" t="n">
-        <v>47400.0</v>
+        <v>46750.0</v>
       </c>
       <c r="D199" s="10" t="n">
-        <v>500.0</v>
+        <v>-150.0</v>
       </c>
       <c r="E199" s="7" t="n">
-        <v>1.07</v>
+        <v>-0.32</v>
       </c>
       <c r="F199" s="10" t="n">
-        <v>693137.0</v>
+        <v>683632.0</v>
       </c>
     </row>
     <row r="200">
@@ -5353,16 +5353,16 @@
         <v>404</v>
       </c>
       <c r="C200" s="10" t="n">
-        <v>18350.0</v>
+        <v>19000.0</v>
       </c>
       <c r="D200" s="10" t="n">
-        <v>100.0</v>
+        <v>-150.0</v>
       </c>
       <c r="E200" s="7" t="n">
-        <v>0.55</v>
+        <v>-0.78</v>
       </c>
       <c r="F200" s="10" t="n">
-        <v>652566.0</v>
+        <v>675682.0</v>
       </c>
     </row>
     <row r="201">
@@ -5373,16 +5373,16 @@
         <v>406</v>
       </c>
       <c r="C201" s="10" t="n">
-        <v>59100.0</v>
+        <v>59200.0</v>
       </c>
       <c r="D201" s="10" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="E201" s="7" t="n">
-        <v>0.0</v>
+        <v>0.17</v>
       </c>
       <c r="F201" s="10" t="n">
-        <v>709200.0</v>
+        <v>710400.0</v>
       </c>
     </row>
   </sheetData>
